--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0FF1B4-0E2D-6946-A92F-C664F2CF350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F02A1FB7-63C3-DD4C-AFAC-8F12B9E9AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="391">
   <si>
     <t>Year</t>
   </si>
@@ -1093,6 +1093,114 @@
   <si>
     <t>For BETA: it was the same, high PF was more variable in time probably due to the seasonality of thaw and activating new flowpaths or the distribution of flowpaths/connectivity thaw depth deepening </t>
   </si>
+  <si>
+    <t>FRCH_storm1_06_13</t>
+  </si>
+  <si>
+    <t>FRCH_storm2_06_18</t>
+  </si>
+  <si>
+    <t>FRCH_storm3a_06_20</t>
+  </si>
+  <si>
+    <t>FRCH_storm3b_06_21</t>
+  </si>
+  <si>
+    <t>FRCH_storm3c_06_26</t>
+  </si>
+  <si>
+    <t>FRCH_storm4a_07_07</t>
+  </si>
+  <si>
+    <t>FRCH_storm4b_07_09</t>
+  </si>
+  <si>
+    <t>FRCH_storm5_07_15</t>
+  </si>
+  <si>
+    <t>FRCH_storm6_07_18</t>
+  </si>
+  <si>
+    <t>FRCH_storm7_07_20</t>
+  </si>
+  <si>
+    <t>FRCH_storm8_07_26</t>
+  </si>
+  <si>
+    <t>FRCH_storm9a_08_01</t>
+  </si>
+  <si>
+    <t>FRCH_storm9b_08_02</t>
+  </si>
+  <si>
+    <t>FRCH_storm10a_08_09</t>
+  </si>
+  <si>
+    <t>FRCH_storm10b_08_12</t>
+  </si>
+  <si>
+    <t>FRCH_storm11_08_20</t>
+  </si>
+  <si>
+    <t>FRCH_storm12_09_06</t>
+  </si>
+  <si>
+    <t>FRCH_storm13_09_09</t>
+  </si>
+  <si>
+    <t>STRT_storm1a_06_18</t>
+  </si>
+  <si>
+    <t>STRT_storm1b_06_20</t>
+  </si>
+  <si>
+    <t>STRT_storm1c_06_21</t>
+  </si>
+  <si>
+    <t>STRT_storm1d_06_23</t>
+  </si>
+  <si>
+    <t>STRT_storm1e_06_24</t>
+  </si>
+  <si>
+    <t>STRT_storm2_07_09</t>
+  </si>
+  <si>
+    <t>STRT_storm3_07_20</t>
+  </si>
+  <si>
+    <t>STRT_storm4a_08_01</t>
+  </si>
+  <si>
+    <t>STRT_storm4b_08_03</t>
+  </si>
+  <si>
+    <t>STRT_storm5_08_09</t>
+  </si>
+  <si>
+    <t>STRT_storm6_08_12</t>
+  </si>
+  <si>
+    <t>STRT_storm7a_08_20</t>
+  </si>
+  <si>
+    <t>STRT_storm7b_08_21</t>
+  </si>
+  <si>
+    <t>STRT_storm8_08_28</t>
+  </si>
+  <si>
+    <t>STRT_storm9a_09_03</t>
+  </si>
+  <si>
+    <t>STRT_storm9b_09_06</t>
+  </si>
+  <si>
+    <t>STRT_storm10_09_23</t>
+  </si>
+  <si>
+    <t>STRT_storm9c_09_09</t>
+  </si>
 </sst>
 </file>
 
@@ -1303,7 +1411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,6 +1605,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1658,7 +1778,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1687,6 +1807,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -78602,8 +78724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79073,13 +79195,16 @@
       <c r="K11">
         <v>12</v>
       </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
       <c r="O11">
         <f>SUM(I11:N11)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P11">
         <f>O11/6</f>
-        <v>5.166666666666667</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -79232,13 +79357,16 @@
       <c r="K15">
         <v>11</v>
       </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
       <c r="O15">
         <f>SUM(J15:N15)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P15">
         <f>O15/4</f>
-        <v>2.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -79306,7 +79434,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -79318,7 +79446,7 @@
       </c>
       <c r="O17" s="19">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -84635,10 +84763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85324,7 +85452,7 @@
       <c r="A55" s="7">
         <v>2020</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -85356,6 +85484,165 @@
       </c>
       <c r="L55" s="7" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H56" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" t="s">
+        <v>179</v>
+      </c>
+      <c r="K56" t="s">
+        <v>179</v>
+      </c>
+      <c r="L56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320020FC-CD0C-4849-BC9A-B975CF3BBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F41BB-7F6E-1E44-B1E2-67E8BA119FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84832,7 +84832,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85524,7 +85524,7 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E55" t="s">
@@ -85563,19 +85563,19 @@
         <v>391</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K56" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F41BB-7F6E-1E44-B1E2-67E8BA119FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE06A40-7F60-AC45-A51D-1908CC5B0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="434">
   <si>
     <t>Year</t>
   </si>
@@ -1265,6 +1265,84 @@
   <si>
     <t>VAUL_storm14_09_06</t>
   </si>
+  <si>
+    <t>POKE_storm1_06_09</t>
+  </si>
+  <si>
+    <t>POKE_storm2_06_12</t>
+  </si>
+  <si>
+    <t>POKE_storm3_06_15</t>
+  </si>
+  <si>
+    <t>POKE_storm4a_06_19</t>
+  </si>
+  <si>
+    <t>POKE_storm4b_06_20</t>
+  </si>
+  <si>
+    <t>POKE_storm4c_06_21</t>
+  </si>
+  <si>
+    <t>POKE_storm5_06_22</t>
+  </si>
+  <si>
+    <t>POKE_storm6_06_29</t>
+  </si>
+  <si>
+    <t>POKE_storm7_07_04</t>
+  </si>
+  <si>
+    <t>POKE_storm8_07_09</t>
+  </si>
+  <si>
+    <t>POKE_storm9_07_12</t>
+  </si>
+  <si>
+    <t>POKE_storm10_07_16</t>
+  </si>
+  <si>
+    <t>POKE_storm11_07_18</t>
+  </si>
+  <si>
+    <t>POKE_storm12_07_20</t>
+  </si>
+  <si>
+    <t>POKE_storm13_07_24</t>
+  </si>
+  <si>
+    <t>POKE_storm14_07_26</t>
+  </si>
+  <si>
+    <t>POKE_storm15_08_02</t>
+  </si>
+  <si>
+    <t>POKE_storm16_08_12</t>
+  </si>
+  <si>
+    <t>POKE_storm17_08_23</t>
+  </si>
+  <si>
+    <t>POKE_storm18_08_25</t>
+  </si>
+  <si>
+    <t>POKE_storm19_08_27</t>
+  </si>
+  <si>
+    <t>POKE_storm20_09_01</t>
+  </si>
+  <si>
+    <t>POKE_storm21_09_03</t>
+  </si>
+  <si>
+    <t>POKE_storm22a_09_07</t>
+  </si>
+  <si>
+    <t>POKE_storm22b_09_09</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -78788,7 +78866,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79335,13 +79413,16 @@
       <c r="K13">
         <v>11</v>
       </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
       <c r="O13">
         <f>SUM(J13:N13)</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P13">
         <f>O13/4</f>
-        <v>2.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -79500,7 +79581,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -79512,7 +79593,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -84829,10 +84910,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84841,7 +84922,7 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" customWidth="1"/>
@@ -85562,8 +85643,11 @@
       <c r="D56" s="24" t="s">
         <v>391</v>
       </c>
+      <c r="E56" s="25" t="s">
+        <v>408</v>
+      </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="I56" t="s">
         <v>198</v>
@@ -85588,6 +85672,9 @@
       <c r="D57" s="24" t="s">
         <v>392</v>
       </c>
+      <c r="E57" s="25" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="24" t="s">
@@ -85599,6 +85686,9 @@
       <c r="D58" s="24" t="s">
         <v>393</v>
       </c>
+      <c r="E58" s="24" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
@@ -85610,6 +85700,9 @@
       <c r="D59" s="25" t="s">
         <v>394</v>
       </c>
+      <c r="E59" s="24" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
@@ -85621,6 +85714,9 @@
       <c r="D60" s="24" t="s">
         <v>395</v>
       </c>
+      <c r="E60" s="24" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="24" t="s">
@@ -85632,6 +85728,9 @@
       <c r="D61" s="24" t="s">
         <v>396</v>
       </c>
+      <c r="E61" s="24" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="24" t="s">
@@ -85643,6 +85742,9 @@
       <c r="D62" s="25" t="s">
         <v>397</v>
       </c>
+      <c r="E62" s="24" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="24" t="s">
@@ -85654,6 +85756,9 @@
       <c r="D63" s="24" t="s">
         <v>398</v>
       </c>
+      <c r="E63" s="25" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
@@ -85665,8 +85770,11 @@
       <c r="D64" s="24" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="24" t="s">
         <v>364</v>
       </c>
@@ -85676,8 +85784,11 @@
       <c r="D65" s="25" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="24" t="s">
         <v>365</v>
       </c>
@@ -85687,8 +85798,11 @@
       <c r="D66" s="24" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="24" t="s">
         <v>366</v>
       </c>
@@ -85698,8 +85812,11 @@
       <c r="D67" s="25" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="24" t="s">
         <v>367</v>
       </c>
@@ -85709,8 +85826,11 @@
       <c r="D68" s="24" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="24" t="s">
         <v>368</v>
       </c>
@@ -85720,8 +85840,11 @@
       <c r="D69" s="24" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
         <v>369</v>
       </c>
@@ -85731,8 +85854,11 @@
       <c r="D70" s="24" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="24" t="s">
         <v>370</v>
       </c>
@@ -85742,8 +85868,11 @@
       <c r="D71" s="24" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>371</v>
       </c>
@@ -85753,13 +85882,54 @@
       <c r="D72" s="24" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
         <v>372</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>389</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="24" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="24" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE06A40-7F60-AC45-A51D-1908CC5B0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE47F60-855E-8441-BA1A-21AF087C2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="442">
   <si>
     <t>Year</t>
   </si>
@@ -1341,7 +1341,31 @@
     <t>POKE_storm22b_09_09</t>
   </si>
   <si>
-    <t>xxxx</t>
+    <t>MOOS_storm1_06_20</t>
+  </si>
+  <si>
+    <t>MOOS_storm2_06_28</t>
+  </si>
+  <si>
+    <t>MOOS_storm3_07_18</t>
+  </si>
+  <si>
+    <t>MOOS_storm4_07_20</t>
+  </si>
+  <si>
+    <t>MOOS_storm5_07_26</t>
+  </si>
+  <si>
+    <t>MOOS_storm7a_08_09</t>
+  </si>
+  <si>
+    <t>MOOS_storm7b_08_12</t>
+  </si>
+  <si>
+    <t>MOOS_storm8_09_06</t>
+  </si>
+  <si>
+    <t>MOOS_storm9_09_09</t>
   </si>
 </sst>
 </file>
@@ -78866,7 +78890,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79376,13 +79400,16 @@
       <c r="K12">
         <v>11</v>
       </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
       <c r="O12">
         <f>SUM(I12:N12)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P12">
         <f>O12/6</f>
-        <v>4.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -79581,7 +79608,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -79593,7 +79620,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -84913,7 +84940,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85608,10 +85635,10 @@
       <c r="D55" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
@@ -85646,20 +85673,23 @@
       <c r="E56" s="25" t="s">
         <v>408</v>
       </c>
+      <c r="F56" s="24" t="s">
+        <v>433</v>
+      </c>
       <c r="H56" t="s">
-        <v>433</v>
+        <v>249</v>
       </c>
       <c r="I56" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="J56" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="K56" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -85675,6 +85705,9 @@
       <c r="E57" s="25" t="s">
         <v>409</v>
       </c>
+      <c r="F57" s="24" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="24" t="s">
@@ -85689,6 +85722,9 @@
       <c r="E58" s="24" t="s">
         <v>410</v>
       </c>
+      <c r="F58" s="24" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
@@ -85703,6 +85739,9 @@
       <c r="E59" s="24" t="s">
         <v>411</v>
       </c>
+      <c r="F59" s="24" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
@@ -85717,6 +85756,9 @@
       <c r="E60" s="24" t="s">
         <v>412</v>
       </c>
+      <c r="F60" s="24" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="24" t="s">
@@ -85731,6 +85773,9 @@
       <c r="E61" s="24" t="s">
         <v>413</v>
       </c>
+      <c r="F61" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="24" t="s">
@@ -85745,6 +85790,9 @@
       <c r="E62" s="24" t="s">
         <v>414</v>
       </c>
+      <c r="F62" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="24" t="s">
@@ -85759,6 +85807,9 @@
       <c r="E63" s="25" t="s">
         <v>415</v>
       </c>
+      <c r="F63" s="24" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
@@ -85773,8 +85824,11 @@
       <c r="E64" s="24" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="24" t="s">
         <v>364</v>
       </c>
@@ -85787,8 +85841,11 @@
       <c r="E65" s="24" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="24" t="s">
         <v>365</v>
       </c>
@@ -85801,8 +85858,11 @@
       <c r="E66" s="24" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="24" t="s">
         <v>366</v>
       </c>
@@ -85816,7 +85876,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="24" t="s">
         <v>367</v>
       </c>
@@ -85830,7 +85890,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="24" t="s">
         <v>368</v>
       </c>
@@ -85844,7 +85904,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
         <v>369</v>
       </c>
@@ -85858,7 +85918,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="24" t="s">
         <v>370</v>
       </c>
@@ -85872,7 +85932,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>371</v>
       </c>
@@ -85886,7 +85946,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
         <v>372</v>
       </c>
@@ -85897,37 +85957,37 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E74" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E75" s="25" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E76" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E77" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E78" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E79" s="24" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E80" s="24" t="s">
         <v>432</v>
       </c>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE47F60-855E-8441-BA1A-21AF087C2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12809F68-D7BA-9548-BDE6-79F16B5B728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="454">
   <si>
     <t>Year</t>
   </si>
@@ -1367,6 +1367,42 @@
   <si>
     <t>MOOS_storm9_09_09</t>
   </si>
+  <si>
+    <t>CARI_storm1_06_15</t>
+  </si>
+  <si>
+    <t>CARI_storm2a_06_19</t>
+  </si>
+  <si>
+    <t>CARI_storm2b_06_20</t>
+  </si>
+  <si>
+    <t>CARI_storm2c_06_21</t>
+  </si>
+  <si>
+    <t>CARI_storm3_06_23</t>
+  </si>
+  <si>
+    <t>CARI_storm4_07_09</t>
+  </si>
+  <si>
+    <t>CARI_storm5_07_13</t>
+  </si>
+  <si>
+    <t>CARI_storm6_07_24</t>
+  </si>
+  <si>
+    <t>CARI_storm7_07_27</t>
+  </si>
+  <si>
+    <t>CARI_storm8a_08_02</t>
+  </si>
+  <si>
+    <t>CARI_storm8b_08_03</t>
+  </si>
+  <si>
+    <t>CARI_storm9_09_07</t>
+  </si>
 </sst>
 </file>
 
@@ -78890,7 +78926,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79578,13 +79614,16 @@
       <c r="K16">
         <v>10</v>
       </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
       <c r="O16">
         <f>SUM(J16:N16)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="P16">
         <f>O16/5</f>
-        <v>4.5999999999999996</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -79608,7 +79647,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -79620,7 +79659,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -84939,8 +84978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85623,7 +85662,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="24">
         <v>2020</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -85641,22 +85680,22 @@
       <c r="F55" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -85676,20 +85715,23 @@
       <c r="F56" s="24" t="s">
         <v>433</v>
       </c>
+      <c r="G56" s="24" t="s">
+        <v>442</v>
+      </c>
       <c r="H56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -85708,6 +85750,9 @@
       <c r="F57" s="24" t="s">
         <v>434</v>
       </c>
+      <c r="G57" s="24" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="24" t="s">
@@ -85725,6 +85770,9 @@
       <c r="F58" s="24" t="s">
         <v>435</v>
       </c>
+      <c r="G58" s="24" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
@@ -85742,6 +85790,9 @@
       <c r="F59" s="24" t="s">
         <v>436</v>
       </c>
+      <c r="G59" s="25" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
@@ -85759,6 +85810,9 @@
       <c r="F60" s="24" t="s">
         <v>437</v>
       </c>
+      <c r="G60" s="24" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="24" t="s">
@@ -85776,6 +85830,9 @@
       <c r="F61" s="24" t="s">
         <v>272</v>
       </c>
+      <c r="G61" s="24" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="24" t="s">
@@ -85793,6 +85850,9 @@
       <c r="F62" s="24" t="s">
         <v>278</v>
       </c>
+      <c r="G62" s="24" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="24" t="s">
@@ -85810,6 +85870,9 @@
       <c r="F63" s="24" t="s">
         <v>438</v>
       </c>
+      <c r="G63" s="24" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="24" t="s">
@@ -85827,8 +85890,11 @@
       <c r="F64" s="24" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="24" t="s">
         <v>364</v>
       </c>
@@ -85844,8 +85910,11 @@
       <c r="F65" s="24" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="24" t="s">
         <v>365</v>
       </c>
@@ -85861,8 +85930,11 @@
       <c r="F66" s="24" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="24" t="s">
         <v>366</v>
       </c>
@@ -85875,8 +85947,11 @@
       <c r="E67" s="25" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="24" t="s">
         <v>367</v>
       </c>
@@ -85890,7 +85965,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="24" t="s">
         <v>368</v>
       </c>
@@ -85904,7 +85979,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
         <v>369</v>
       </c>
@@ -85918,7 +85993,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="24" t="s">
         <v>370</v>
       </c>
@@ -85932,7 +86007,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>371</v>
       </c>
@@ -85946,7 +86021,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="25" t="s">
         <v>372</v>
       </c>
@@ -85957,37 +86032,37 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E74" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E75" s="25" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E76" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E77" s="24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E78" s="24" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E79" s="24" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E80" s="24" t="s">
         <v>432</v>
       </c>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12809F68-D7BA-9548-BDE6-79F16B5B728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6744741-2842-BF4E-B424-699F5AD98D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33800" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="463">
   <si>
     <t>Year</t>
   </si>
@@ -1403,6 +1403,33 @@
   <si>
     <t>CARI_storm9_09_07</t>
   </si>
+  <si>
+    <t>VAUL_storm1a_07_23</t>
+  </si>
+  <si>
+    <t>VAUL_storm1b_07_27</t>
+  </si>
+  <si>
+    <t>VAUL_storm2_08_05</t>
+  </si>
+  <si>
+    <t>VAUL_storm3_08_08</t>
+  </si>
+  <si>
+    <t>VAUL_storm4a_08_15</t>
+  </si>
+  <si>
+    <t>VAUL_storm4b_08_20</t>
+  </si>
+  <si>
+    <t>VAUL_storm5a_08_23</t>
+  </si>
+  <si>
+    <t>VAUL_storm5b_08_26</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -1613,7 +1640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1819,6 +1846,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1980,7 +2013,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2010,6 +2043,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -78926,7 +78961,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79523,13 +79558,16 @@
       <c r="L14">
         <v>13</v>
       </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
       <c r="O14">
         <f>SUM(J14:N14)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P14">
         <f>O14/4</f>
-        <v>5.75</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -79651,7 +79689,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79659,7 +79697,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -84976,10 +85014,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86065,6 +86103,99 @@
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E80" s="24" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="27">
+        <v>2021</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D83" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="H83" t="s">
+        <v>462</v>
+      </c>
+      <c r="I83" t="s">
+        <v>462</v>
+      </c>
+      <c r="J83" t="s">
+        <v>462</v>
+      </c>
+      <c r="K83" t="s">
+        <v>462</v>
+      </c>
+      <c r="L83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D84" s="24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D85" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D86" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D87" s="24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D88" s="24" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D89" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D90" s="25" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6744741-2842-BF4E-B424-699F5AD98D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EE29D1-AEF3-0E44-A563-2A0B202C196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33800" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="472">
   <si>
     <t>Year</t>
   </si>
@@ -1428,7 +1428,34 @@
     <t>VAUL_storm5b_08_26</t>
   </si>
   <si>
-    <t>x</t>
+    <t>MOOS_storm1_07_23</t>
+  </si>
+  <si>
+    <t>MOOS_storm2_07_27</t>
+  </si>
+  <si>
+    <t>MOOS_storm3a_08_06</t>
+  </si>
+  <si>
+    <t>MOOS_storm3b_08_08</t>
+  </si>
+  <si>
+    <t>MOOS_storm4a_08_15</t>
+  </si>
+  <si>
+    <t>MOOS_storm4b_08_17</t>
+  </si>
+  <si>
+    <t>MOOS_storm5a_08_19</t>
+  </si>
+  <si>
+    <t>MOOS_storm5b_08_21</t>
+  </si>
+  <si>
+    <t>MOOS_storm6_08_25</t>
+  </si>
+  <si>
+    <t>MOOS_storm7_08_27</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2040,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2043,7 +2070,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -78961,7 +78987,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79474,13 +79500,16 @@
       <c r="L12">
         <v>11</v>
       </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
       <c r="O12">
         <f>SUM(I12:N12)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P12">
         <f>O12/6</f>
-        <v>6.166666666666667</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -79689,7 +79718,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79697,7 +79726,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85014,10 +85043,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86106,96 +86135,130 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="27">
+      <c r="A82">
         <v>2021</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" t="s">
         <v>174</v>
       </c>
-      <c r="I82" s="27" t="s">
+      <c r="I82" t="s">
         <v>175</v>
       </c>
-      <c r="J82" s="27" t="s">
+      <c r="J82" t="s">
         <v>115</v>
       </c>
-      <c r="K82" s="27" t="s">
+      <c r="K82" t="s">
         <v>176</v>
       </c>
-      <c r="L82" s="27" t="s">
+      <c r="L82" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="27" t="s">
         <v>454</v>
       </c>
+      <c r="F83" s="24" t="s">
+        <v>462</v>
+      </c>
       <c r="H83" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="I83" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="J83" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="K83" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="L83" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D84" s="24" t="s">
         <v>455</v>
       </c>
+      <c r="F84" s="24" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D85" s="25" t="s">
         <v>456</v>
       </c>
+      <c r="F85" s="24" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D86" s="24" t="s">
         <v>457</v>
       </c>
+      <c r="F86" s="24" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D87" s="24" t="s">
         <v>458</v>
       </c>
+      <c r="F87" s="24" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D88" s="24" t="s">
         <v>459</v>
       </c>
+      <c r="F88" s="25" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D89" s="24" t="s">
         <v>460</v>
       </c>
+      <c r="F89" s="24" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D90" s="25" t="s">
         <v>461</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F91" s="24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F92" s="24" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EE29D1-AEF3-0E44-A563-2A0B202C196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E8C91-77E2-644E-9039-ED7ADF41F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="481">
   <si>
     <t>Year</t>
   </si>
@@ -1457,6 +1457,33 @@
   <si>
     <t>MOOS_storm7_08_27</t>
   </si>
+  <si>
+    <t>FRCH_storm2_07_27</t>
+  </si>
+  <si>
+    <t>FRCH_storm3_08_05</t>
+  </si>
+  <si>
+    <t>FRCH_storm4_08_08</t>
+  </si>
+  <si>
+    <t>FRCH_storm5a_08_15</t>
+  </si>
+  <si>
+    <t>FRCH_storm5b_08_17</t>
+  </si>
+  <si>
+    <t>FRCH_storm6a_08_19</t>
+  </si>
+  <si>
+    <t>FRCH_storm6b_08_20</t>
+  </si>
+  <si>
+    <t>FRCH_storm7_08_25</t>
+  </si>
+  <si>
+    <t>FRCH_storm8_08_27</t>
+  </si>
 </sst>
 </file>
 
@@ -78987,7 +79014,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79460,13 +79487,16 @@
       <c r="L11">
         <v>14</v>
       </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
       <c r="O11">
         <f>SUM(I11:N11)</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P11">
         <f>O11/6</f>
-        <v>7.5</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -79718,7 +79748,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79726,7 +79756,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85046,7 +85076,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86138,7 +86168,7 @@
       <c r="A82">
         <v>2021</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
@@ -86150,7 +86180,7 @@
       <c r="E82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G82" t="s">
@@ -86173,6 +86203,9 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="24" t="s">
+        <v>472</v>
+      </c>
       <c r="D83" s="27" t="s">
         <v>454</v>
       </c>
@@ -86180,22 +86213,25 @@
         <v>462</v>
       </c>
       <c r="H83" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="I83" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J83" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K83" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L83" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="24" t="s">
+        <v>473</v>
+      </c>
       <c r="D84" s="24" t="s">
         <v>455</v>
       </c>
@@ -86204,6 +86240,9 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="24" t="s">
+        <v>474</v>
+      </c>
       <c r="D85" s="25" t="s">
         <v>456</v>
       </c>
@@ -86212,6 +86251,9 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
+        <v>475</v>
+      </c>
       <c r="D86" s="24" t="s">
         <v>457</v>
       </c>
@@ -86220,6 +86262,9 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="25" t="s">
+        <v>476</v>
+      </c>
       <c r="D87" s="24" t="s">
         <v>458</v>
       </c>
@@ -86228,6 +86273,9 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="24" t="s">
+        <v>477</v>
+      </c>
       <c r="D88" s="24" t="s">
         <v>459</v>
       </c>
@@ -86236,6 +86284,9 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B89" s="25" t="s">
+        <v>478</v>
+      </c>
       <c r="D89" s="24" t="s">
         <v>460</v>
       </c>
@@ -86244,6 +86295,9 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="24" t="s">
+        <v>479</v>
+      </c>
       <c r="D90" s="25" t="s">
         <v>461</v>
       </c>
@@ -86252,6 +86306,9 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="24" t="s">
+        <v>480</v>
+      </c>
       <c r="F91" s="24" t="s">
         <v>470</v>
       </c>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E8C91-77E2-644E-9039-ED7ADF41F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9603D-9B08-6949-A3F1-978D9C6F824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="487">
   <si>
     <t>Year</t>
   </si>
@@ -1484,6 +1484,24 @@
   <si>
     <t>FRCH_storm8_08_27</t>
   </si>
+  <si>
+    <t>STRT_storm1a_08_15</t>
+  </si>
+  <si>
+    <t>STRT_storm1b_08_17</t>
+  </si>
+  <si>
+    <t>STRT_storm2a_08_19</t>
+  </si>
+  <si>
+    <t>STRT_storm2b_08_20</t>
+  </si>
+  <si>
+    <t>STRT_storm3_08_25</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -79014,7 +79032,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79667,13 +79685,16 @@
       <c r="L15">
         <v>13</v>
       </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
       <c r="O15">
         <f>SUM(J15:N15)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P15">
         <f>O15/4</f>
-        <v>6</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -79748,7 +79769,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79756,7 +79777,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85076,7 +85097,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86171,7 +86192,7 @@
       <c r="B82" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="24" t="s">
@@ -86206,6 +86227,9 @@
       <c r="B83" s="24" t="s">
         <v>472</v>
       </c>
+      <c r="C83" s="24" t="s">
+        <v>481</v>
+      </c>
       <c r="D83" s="27" t="s">
         <v>454</v>
       </c>
@@ -86213,25 +86237,28 @@
         <v>462</v>
       </c>
       <c r="H83" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="I83" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="J83" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="K83" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
       <c r="L83" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B84" s="24" t="s">
         <v>473</v>
       </c>
+      <c r="C84" s="25" t="s">
+        <v>482</v>
+      </c>
       <c r="D84" s="24" t="s">
         <v>455</v>
       </c>
@@ -86243,6 +86270,9 @@
       <c r="B85" s="24" t="s">
         <v>474</v>
       </c>
+      <c r="C85" s="24" t="s">
+        <v>483</v>
+      </c>
       <c r="D85" s="25" t="s">
         <v>456</v>
       </c>
@@ -86254,6 +86284,9 @@
       <c r="B86" s="24" t="s">
         <v>475</v>
       </c>
+      <c r="C86" s="25" t="s">
+        <v>484</v>
+      </c>
       <c r="D86" s="24" t="s">
         <v>457</v>
       </c>
@@ -86264,6 +86297,9 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
         <v>476</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>458</v>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9603D-9B08-6949-A3F1-978D9C6F824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F85F9F-E7CC-3F4F-9918-FFFB54CB488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4744" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="497">
   <si>
     <t>Year</t>
   </si>
@@ -1502,6 +1502,36 @@
   <si>
     <t>xxxx</t>
   </si>
+  <si>
+    <t>POKE_storm1_05_16</t>
+  </si>
+  <si>
+    <t>POKE_storm2_06_01</t>
+  </si>
+  <si>
+    <t>POKE_storm3_06_19</t>
+  </si>
+  <si>
+    <t>POKE_storm4_07_23</t>
+  </si>
+  <si>
+    <t>POKE_storm5_07_27</t>
+  </si>
+  <si>
+    <t>POKE_storm6_08_08</t>
+  </si>
+  <si>
+    <t>POKE_storm7a_08_14</t>
+  </si>
+  <si>
+    <t>POKE_storm7b_08_19</t>
+  </si>
+  <si>
+    <t>POKE_storm7c_08_23</t>
+  </si>
+  <si>
+    <t>POKE_storm7d_08_26</t>
+  </si>
 </sst>
 </file>
 
@@ -79591,13 +79621,16 @@
       <c r="L13">
         <v>18</v>
       </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
       <c r="O13">
         <f>SUM(J13:N13)</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P13">
         <f>O13/4</f>
-        <v>7.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -79769,7 +79802,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79777,7 +79810,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85097,7 +85130,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86233,6 +86266,9 @@
       <c r="D83" s="27" t="s">
         <v>454</v>
       </c>
+      <c r="E83" s="24" t="s">
+        <v>487</v>
+      </c>
       <c r="F83" s="24" t="s">
         <v>462</v>
       </c>
@@ -86262,6 +86298,9 @@
       <c r="D84" s="24" t="s">
         <v>455</v>
       </c>
+      <c r="E84" s="24" t="s">
+        <v>488</v>
+      </c>
       <c r="F84" s="24" t="s">
         <v>463</v>
       </c>
@@ -86276,6 +86315,9 @@
       <c r="D85" s="25" t="s">
         <v>456</v>
       </c>
+      <c r="E85" s="24" t="s">
+        <v>489</v>
+      </c>
       <c r="F85" s="24" t="s">
         <v>464</v>
       </c>
@@ -86290,6 +86332,9 @@
       <c r="D86" s="24" t="s">
         <v>457</v>
       </c>
+      <c r="E86" s="24" t="s">
+        <v>490</v>
+      </c>
       <c r="F86" s="24" t="s">
         <v>465</v>
       </c>
@@ -86304,6 +86349,9 @@
       <c r="D87" s="24" t="s">
         <v>458</v>
       </c>
+      <c r="E87" s="24" t="s">
+        <v>491</v>
+      </c>
       <c r="F87" s="24" t="s">
         <v>466</v>
       </c>
@@ -86315,6 +86363,9 @@
       <c r="D88" s="24" t="s">
         <v>459</v>
       </c>
+      <c r="E88" s="24" t="s">
+        <v>492</v>
+      </c>
       <c r="F88" s="25" t="s">
         <v>467</v>
       </c>
@@ -86326,6 +86377,9 @@
       <c r="D89" s="24" t="s">
         <v>460</v>
       </c>
+      <c r="E89" s="24" t="s">
+        <v>493</v>
+      </c>
       <c r="F89" s="24" t="s">
         <v>468</v>
       </c>
@@ -86337,6 +86391,9 @@
       <c r="D90" s="25" t="s">
         <v>461</v>
       </c>
+      <c r="E90" s="24" t="s">
+        <v>494</v>
+      </c>
       <c r="F90" s="25" t="s">
         <v>469</v>
       </c>
@@ -86345,11 +86402,17 @@
       <c r="B91" s="24" t="s">
         <v>480</v>
       </c>
+      <c r="E91" s="25" t="s">
+        <v>495</v>
+      </c>
       <c r="F91" s="24" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E92" s="24" t="s">
+        <v>496</v>
+      </c>
       <c r="F92" s="24" t="s">
         <v>471</v>
       </c>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F85F9F-E7CC-3F4F-9918-FFFB54CB488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EF767-A4E2-5A4F-B154-F671F5DBB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="507">
   <si>
     <t>Year</t>
   </si>
@@ -1532,6 +1532,36 @@
   <si>
     <t>POKE_storm7d_08_26</t>
   </si>
+  <si>
+    <t>CARI_storm1_05_16</t>
+  </si>
+  <si>
+    <t>CARI_storm2_06_01</t>
+  </si>
+  <si>
+    <t>CARI_storm3_06_19</t>
+  </si>
+  <si>
+    <t>CARI_storm4_07_24</t>
+  </si>
+  <si>
+    <t>CARI_storm5_07_27</t>
+  </si>
+  <si>
+    <t>CARI_storm6_08_08</t>
+  </si>
+  <si>
+    <t>CARI_storm7_08_15</t>
+  </si>
+  <si>
+    <t>CARI_storm8_08_20</t>
+  </si>
+  <si>
+    <t>CARI_storm9_08_23</t>
+  </si>
+  <si>
+    <t>CARI_storm10_08_27</t>
+  </si>
 </sst>
 </file>
 
@@ -79062,7 +79092,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79768,13 +79798,16 @@
       <c r="L16">
         <v>11</v>
       </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
       <c r="O16">
         <f>SUM(J16:N16)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P16">
         <f>O16/5</f>
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -79802,7 +79835,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
@@ -79810,7 +79843,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85130,7 +85163,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="G83" sqref="G83:G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86231,7 +86264,7 @@
       <c r="D82" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="24" t="s">
@@ -86272,6 +86305,9 @@
       <c r="F83" s="24" t="s">
         <v>462</v>
       </c>
+      <c r="G83" s="24" t="s">
+        <v>497</v>
+      </c>
       <c r="H83" t="s">
         <v>486</v>
       </c>
@@ -86304,6 +86340,9 @@
       <c r="F84" s="24" t="s">
         <v>463</v>
       </c>
+      <c r="G84" s="24" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B85" s="24" t="s">
@@ -86321,6 +86360,9 @@
       <c r="F85" s="24" t="s">
         <v>464</v>
       </c>
+      <c r="G85" s="24" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
@@ -86338,6 +86380,9 @@
       <c r="F86" s="24" t="s">
         <v>465</v>
       </c>
+      <c r="G86" s="24" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B87" s="25" t="s">
@@ -86355,6 +86400,9 @@
       <c r="F87" s="24" t="s">
         <v>466</v>
       </c>
+      <c r="G87" s="24" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B88" s="24" t="s">
@@ -86369,6 +86417,9 @@
       <c r="F88" s="25" t="s">
         <v>467</v>
       </c>
+      <c r="G88" s="24" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" s="25" t="s">
@@ -86383,6 +86434,9 @@
       <c r="F89" s="24" t="s">
         <v>468</v>
       </c>
+      <c r="G89" s="24" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B90" s="24" t="s">
@@ -86397,6 +86451,9 @@
       <c r="F90" s="25" t="s">
         <v>469</v>
       </c>
+      <c r="G90" s="24" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B91" s="24" t="s">
@@ -86408,6 +86465,9 @@
       <c r="F91" s="24" t="s">
         <v>470</v>
       </c>
+      <c r="G91" s="24" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E92" s="24" t="s">
@@ -86415,6 +86475,9 @@
       </c>
       <c r="F92" s="24" t="s">
         <v>471</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30EF767-A4E2-5A4F-B154-F671F5DBB4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7DDF1-BE00-8A40-A969-E98E4D507762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="506">
   <si>
     <t>Year</t>
   </si>
@@ -1500,9 +1500,6 @@
     <t>STRT_storm3_08_25</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>POKE_storm1_05_16</t>
   </si>
   <si>
@@ -85163,7 +85160,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:G92"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86252,7 +86249,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="24">
         <v>2021</v>
       </c>
       <c r="B82" s="24" t="s">
@@ -86270,22 +86267,22 @@
       <c r="F82" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="24" t="s">
         <v>127</v>
       </c>
     </row>
@@ -86300,28 +86297,28 @@
         <v>454</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>462</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H83" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="I83" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="J83" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="K83" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="L83" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -86335,13 +86332,13 @@
         <v>455</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>463</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -86355,13 +86352,13 @@
         <v>456</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>464</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -86375,13 +86372,13 @@
         <v>457</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>465</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -86395,13 +86392,13 @@
         <v>458</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>466</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -86412,13 +86409,13 @@
         <v>459</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>467</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -86429,13 +86426,13 @@
         <v>460</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F89" s="24" t="s">
         <v>468</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -86446,13 +86443,13 @@
         <v>461</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>469</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -86460,24 +86457,24 @@
         <v>480</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F91" s="24" t="s">
         <v>470</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E92" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F92" s="24" t="s">
         <v>471</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7DDF1-BE00-8A40-A969-E98E4D507762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BD73C-A929-6343-B397-383E10A37A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="511">
   <si>
     <t>Year</t>
   </si>
@@ -1559,6 +1559,21 @@
   <si>
     <t>CARI_storm10_08_27</t>
   </si>
+  <si>
+    <t>FRCH_storm1_07_10</t>
+  </si>
+  <si>
+    <t>FRCH_storm2_08_05</t>
+  </si>
+  <si>
+    <t>FRCH_storm3_09_14</t>
+  </si>
+  <si>
+    <t>FRCH_storm4_09_19</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -2142,7 +2157,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2173,6 +2188,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -79089,7 +79105,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79565,13 +79581,16 @@
       <c r="M11">
         <v>7</v>
       </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
       <c r="O11">
         <f>SUM(I11:N11)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P11">
         <f>O11/6</f>
-        <v>8.6666666666666661</v>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -79836,11 +79855,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85157,10 +85176,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86475,6 +86494,79 @@
       </c>
       <c r="G92" s="24" t="s">
         <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="28">
+        <v>2022</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J94" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K94" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="H95" t="s">
+        <v>510</v>
+      </c>
+      <c r="I95" t="s">
+        <v>510</v>
+      </c>
+      <c r="J95" t="s">
+        <v>510</v>
+      </c>
+      <c r="K95" t="s">
+        <v>510</v>
+      </c>
+      <c r="L95" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B96" s="24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="24" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BD73C-A929-6343-B397-383E10A37A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22795AAB-163D-514D-A1A7-39AE4D61E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="520">
   <si>
     <t>Year</t>
   </si>
@@ -1574,6 +1574,33 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>MOOS_storm1_07_10</t>
+  </si>
+  <si>
+    <t>MOOS_storm2a_08_05</t>
+  </si>
+  <si>
+    <t>MOOS_storm2b_08_06</t>
+  </si>
+  <si>
+    <t>MOOS_storm3_08_19</t>
+  </si>
+  <si>
+    <t>MOOS_storm4_09_15</t>
+  </si>
+  <si>
+    <t>POKE_storm1_07_15</t>
+  </si>
+  <si>
+    <t>POKE_storm2_09_03</t>
+  </si>
+  <si>
+    <t>POKE_storm3_09_09</t>
+  </si>
+  <si>
+    <t>POKE_storm4_09_14</t>
+  </si>
 </sst>
 </file>
 
@@ -2157,7 +2184,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2188,7 +2215,6 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -79104,8 +79130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79627,13 +79653,16 @@
       <c r="M12">
         <v>8</v>
       </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
       <c r="O12">
         <f>SUM(I12:N12)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P12">
         <f>O12/6</f>
-        <v>7.5</v>
+        <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -79670,13 +79699,16 @@
       <c r="M13">
         <v>9</v>
       </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
       <c r="O13">
         <f>SUM(J13:N13)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P13">
         <f>O13/4</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -79855,11 +79887,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85176,10 +85208,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86497,40 +86529,40 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="28">
+      <c r="A94">
         <v>2022</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="28" t="s">
+      <c r="E94" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="28" t="s">
+      <c r="G94" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H94" t="s">
         <v>174</v>
       </c>
-      <c r="I94" s="28" t="s">
+      <c r="I94" t="s">
         <v>175</v>
       </c>
-      <c r="J94" s="28" t="s">
+      <c r="J94" t="s">
         <v>115</v>
       </c>
-      <c r="K94" s="28" t="s">
+      <c r="K94" t="s">
         <v>176</v>
       </c>
-      <c r="L94" s="28" t="s">
+      <c r="L94" t="s">
         <v>127</v>
       </c>
     </row>
@@ -86538,6 +86570,12 @@
       <c r="B95" s="24" t="s">
         <v>506</v>
       </c>
+      <c r="E95" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>511</v>
+      </c>
       <c r="H95" t="s">
         <v>510</v>
       </c>
@@ -86558,15 +86596,38 @@
       <c r="B96" s="24" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E96" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="24" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E97" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="24" t="s">
         <v>509</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="24" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22795AAB-163D-514D-A1A7-39AE4D61E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4DB98-305A-354F-8BC5-1767BCE342F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="1940" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="525">
   <si>
     <t>Year</t>
   </si>
@@ -1572,9 +1572,6 @@
     <t>FRCH_storm4_09_19</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>MOOS_storm1_07_10</t>
   </si>
   <si>
@@ -1600,6 +1597,24 @@
   </si>
   <si>
     <t>POKE_storm4_09_14</t>
+  </si>
+  <si>
+    <t>STRT_storm1_08_19</t>
+  </si>
+  <si>
+    <t>STRT_storm2_09_04</t>
+  </si>
+  <si>
+    <t>STRT_storm3_09_22</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>VAUL_storm1_08_01</t>
+  </si>
+  <si>
+    <t>VAUL_storm2_09_14</t>
   </si>
 </sst>
 </file>
@@ -79131,7 +79146,7 @@
   <dimension ref="A1:AL94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79749,13 +79764,16 @@
       <c r="M14">
         <v>6</v>
       </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
       <c r="O14">
         <f>SUM(J14:N14)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P14">
         <f>O14/4</f>
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -79799,13 +79817,16 @@
       <c r="M15">
         <v>3</v>
       </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
       <c r="O15">
         <f>SUM(J15:N15)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P15">
         <f>O15/4</f>
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -79887,11 +79908,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85211,7 +85232,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95:E98"/>
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86535,16 +86556,16 @@
       <c r="B94" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="s">
@@ -86570,48 +86591,63 @@
       <c r="B95" s="24" t="s">
         <v>506</v>
       </c>
+      <c r="C95" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D95" t="s">
+        <v>523</v>
+      </c>
       <c r="E95" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H95" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="I95" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="J95" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="K95" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="L95" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B96" s="24" t="s">
         <v>507</v>
       </c>
+      <c r="C96" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D96" t="s">
+        <v>524</v>
+      </c>
       <c r="E96" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="24" t="s">
         <v>508</v>
       </c>
+      <c r="C97" s="24" t="s">
+        <v>521</v>
+      </c>
       <c r="E97" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
@@ -86619,15 +86655,15 @@
         <v>509</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F99" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4DB98-305A-354F-8BC5-1767BCE342F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09338527-B608-BB40-90D6-80E53378ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="1940" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="1940" windowWidth="30240" windowHeight="17260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="534">
   <si>
     <t>Year</t>
   </si>
@@ -1616,6 +1616,33 @@
   <si>
     <t>VAUL_storm2_09_14</t>
   </si>
+  <si>
+    <t>CARI_storm1_07_15</t>
+  </si>
+  <si>
+    <t>CARI_storm2_07_19</t>
+  </si>
+  <si>
+    <t>CARI_storm3_08_01</t>
+  </si>
+  <si>
+    <t>CARI_storm4a_08_05</t>
+  </si>
+  <si>
+    <t>CARI_storm4b_08_06</t>
+  </si>
+  <si>
+    <t>CARI_storm5_08_08</t>
+  </si>
+  <si>
+    <t>CARI_storm6_08_15</t>
+  </si>
+  <si>
+    <t>CARI_storm7_08_18</t>
+  </si>
+  <si>
+    <t>CARI_storm8_09_04</t>
+  </si>
 </sst>
 </file>
 
@@ -1826,7 +1853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1938,12 +1965,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,30 +2181,30 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2192,14 +2213,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2224,12 +2245,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -79145,7 +79165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -85229,10 +85249,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85248,28 +85268,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22">
+      <c r="A1" s="23">
         <v>2015</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -85574,7 +85594,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+      <c r="A32" s="23">
         <v>2019</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -85592,22 +85612,22 @@
       <c r="F32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -85756,7 +85776,7 @@
       <c r="D39" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>283</v>
       </c>
       <c r="F39" s="21" t="s">
@@ -85915,60 +85935,60 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="24">
+      <c r="A55" s="23">
         <v>2020</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K55" s="24" t="s">
+      <c r="K55" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="L55" s="24" t="s">
+      <c r="L55" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="23" t="s">
         <v>442</v>
       </c>
       <c r="H56" t="s">
@@ -85988,393 +86008,393 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="23" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="23" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="24" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="23" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="23" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="23" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="23" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="23" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="G65" s="23" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="23" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="23" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="23" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="24" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="24" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="25" t="s">
+      <c r="E75" s="24" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="24" t="s">
+      <c r="E78" s="23" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E79" s="24" t="s">
+      <c r="E79" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E80" s="24" t="s">
+      <c r="E80" s="23" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>2021</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G82" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="24" t="s">
+      <c r="H82" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I82" s="24" t="s">
+      <c r="I82" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K82" s="24" t="s">
+      <c r="K82" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="L82" s="24" t="s">
+      <c r="L82" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="23" t="s">
         <v>496</v>
       </c>
       <c r="H83" t="s">
@@ -86394,214 +86414,217 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E84" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="23" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="23" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="23" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="G87" s="24" t="s">
+      <c r="G87" s="23" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="E88" s="24" t="s">
+      <c r="E88" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="G88" s="24" t="s">
+      <c r="G88" s="23" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F89" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G89" s="23" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="D90" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="23" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="F91" s="24" t="s">
+      <c r="F91" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="G91" s="24" t="s">
+      <c r="G91" s="23" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="F92" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="G92" s="23" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="23">
         <v>2022</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F94" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E95" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F95" s="23" t="s">
         <v>510</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>525</v>
       </c>
       <c r="H95" t="s">
         <v>522</v>
@@ -86620,50 +86643,82 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="F96" s="24" t="s">
+      <c r="F96" s="23" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="24" t="s">
+      <c r="G96" s="23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="F97" s="25" t="s">
+      <c r="F97" s="24" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="24" t="s">
+      <c r="G97" s="23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="F98" s="23" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="24" t="s">
+      <c r="G98" s="23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F99" s="23" t="s">
         <v>514</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="23" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/Output_from_analysis/TKH_Summary_statistics.xlsx
+++ b/Output_from_analysis/TKH_Summary_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/Storms_clean_repo/Output_from_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09338527-B608-BB40-90D6-80E53378ACDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE5D1E-2C5D-5445-A3F6-803D5024F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="1940" windowWidth="30240" windowHeight="17260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34440" yWindow="1920" windowWidth="30240" windowHeight="17260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start End Dates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5275" uniqueCount="537">
   <si>
     <t>Year</t>
   </si>
@@ -1643,6 +1643,15 @@
   <si>
     <t>CARI_storm8_09_04</t>
   </si>
+  <si>
+    <t>TKH_REDO</t>
+  </si>
+  <si>
+    <t>TKH_REDO_Not updated as of 10/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAUL </t>
+  </si>
 </sst>
 </file>
 
@@ -1853,7 +1862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2059,8 +2068,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2175,6 +2190,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2220,7 +2250,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2250,6 +2280,9 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -72303,10 +72336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72314,7 +72347,7 @@
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -72333,445 +72366,413 @@
       <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2">
-        <v>76.435333333333304</v>
-      </c>
-      <c r="D2">
-        <v>28.3</v>
-      </c>
-      <c r="E2">
-        <v>67.913333333333298</v>
-      </c>
-      <c r="F2">
-        <v>-1.909</v>
-      </c>
-      <c r="H2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I2" t="s">
         <v>105</v>
       </c>
-      <c r="I2">
-        <f>C34/C29</f>
+      <c r="J2">
+        <f>C43/C36</f>
         <v>4.2478114605290713</v>
       </c>
-      <c r="J2">
-        <f>D34/D29</f>
+      <c r="K2">
+        <f>D43/D36</f>
         <v>0.83983919205157231</v>
       </c>
-      <c r="K2">
-        <f>E34/E29</f>
+      <c r="L2">
+        <f>E43/E36</f>
         <v>3.3782176532087926</v>
       </c>
-      <c r="L2">
-        <f>F34/F29</f>
+      <c r="M2">
+        <f>F43/F36</f>
         <v>2.9415479897827082</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C3">
-        <v>43.35</v>
+        <v>76.435333333333304</v>
       </c>
       <c r="D3">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E3">
-        <v>87.9881666666667</v>
+        <v>67.913333333333298</v>
       </c>
       <c r="F3">
-        <v>1.2786666666666699</v>
-      </c>
-      <c r="H3" t="s">
+        <v>-1.909</v>
+      </c>
+      <c r="I3" t="s">
         <v>106</v>
       </c>
-      <c r="I3">
-        <f>C34/C24</f>
+      <c r="J3">
+        <f>C43/C29</f>
         <v>6.966537729460172</v>
       </c>
-      <c r="J3">
-        <f>D34/D24</f>
+      <c r="K3">
+        <f>D43/D29</f>
         <v>0.63278356949201797</v>
       </c>
-      <c r="K3">
-        <f>E34/E24</f>
+      <c r="L3">
+        <f>E43/E29</f>
         <v>3.7808486983504226</v>
       </c>
-      <c r="L3">
-        <f>F34/F24</f>
+      <c r="M3">
+        <f>F43/F29</f>
         <v>3.405928921012543</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C4">
-        <v>68.617666666666693</v>
+        <v>43.35</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28.7</v>
       </c>
       <c r="E4">
-        <v>62.741666666666703</v>
+        <v>87.9881666666667</v>
       </c>
       <c r="F4">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="H4" t="s">
+        <v>1.2786666666666699</v>
+      </c>
+      <c r="I4" t="s">
         <v>107</v>
       </c>
-      <c r="I4">
-        <f>C34/C19</f>
+      <c r="J4">
+        <f>C43/C22</f>
         <v>2.0231471542830568</v>
       </c>
-      <c r="J4">
-        <f>D34/D19</f>
+      <c r="K4">
+        <f>D43/D22</f>
         <v>0.84175852583663557</v>
       </c>
-      <c r="K4">
-        <f>E34/E19</f>
+      <c r="L4">
+        <f>E43/E22</f>
         <v>3.7828758100355397</v>
       </c>
-      <c r="L4">
-        <f>F34/F19</f>
+      <c r="M4">
+        <f>F43/F22</f>
         <v>2.0618077560750674</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C5">
-        <v>40.853666666666697</v>
+        <v>68.617666666666693</v>
       </c>
       <c r="D5">
-        <v>28.6</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>82.634252873563199</v>
+        <v>62.741666666666703</v>
       </c>
       <c r="F5">
-        <v>1.64683333333333</v>
-      </c>
-      <c r="H5" t="s">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="I5" t="s">
         <v>108</v>
       </c>
-      <c r="I5">
-        <f>C34/C13</f>
+      <c r="J5">
+        <f>C43/C15</f>
         <v>3.737555401702946</v>
       </c>
-      <c r="J5">
-        <f>D34/D13</f>
+      <c r="K5">
+        <f>D43/D15</f>
         <v>0.7259157865350444</v>
       </c>
-      <c r="K5">
-        <f>E34/E13</f>
+      <c r="L5">
+        <f>E43/E15</f>
         <v>5.0737703590374181</v>
       </c>
-      <c r="L5">
-        <f>F34/F13</f>
+      <c r="M5">
+        <f>F43/F15</f>
         <v>1.2689346864638313</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6">
+        <v>2021</v>
+      </c>
+      <c r="C6">
+        <v>40.853666666666697</v>
+      </c>
+      <c r="D6">
+        <v>28.6</v>
+      </c>
+      <c r="E6">
+        <v>82.634252873563199</v>
+      </c>
+      <c r="F6">
+        <v>1.64683333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
         <v>2022</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>43.698333333333302</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>24.4</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>84.801000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1.9288333333333301</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7">
+        <f>C43/C8</f>
+        <v>4.4247318587813877</v>
+      </c>
+      <c r="K7">
+        <f>D43/D8</f>
+        <v>0.64107830515543351</v>
+      </c>
+      <c r="L7">
+        <f>E43/E8</f>
+        <v>5.7524820885524681</v>
+      </c>
+      <c r="M7">
+        <f>F43/F8</f>
+        <v>24.762633681176055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="6">
-        <f>AVERAGE(C2:C6)</f>
+      <c r="C8" s="6">
+        <f>AVERAGE(C3:C7)</f>
         <v>54.591000000000008</v>
       </c>
-      <c r="D7" s="6">
-        <f>AVERAGE(D2:D6)</f>
+      <c r="D8" s="6">
+        <f>AVERAGE(D3:D7)</f>
         <v>27.4</v>
       </c>
-      <c r="E7" s="6">
-        <f>AVERAGE(E2:E6)</f>
+      <c r="E8" s="6">
+        <f>AVERAGE(E3:E7)</f>
         <v>77.215683908045975</v>
       </c>
-      <c r="F7" s="6">
-        <f>AVERAGE(F2:F6)</f>
+      <c r="F8" s="6">
+        <f>AVERAGE(F3:F7)</f>
         <v>0.77156666666666607</v>
       </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7">
-        <f>C34/C7</f>
-        <v>4.4247318587813877</v>
-      </c>
-      <c r="J7">
-        <f>D34/D7</f>
-        <v>0.64107830515543351</v>
-      </c>
-      <c r="K7">
-        <f>E34/E7</f>
-        <v>5.7524820885524681</v>
-      </c>
-      <c r="L7">
-        <f>F34/F7</f>
-        <v>24.762633681176055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8">
+        <f>C22/((C8+C15+C29+C36)/4)</f>
+        <v>2.2659968594012718</v>
+      </c>
+      <c r="L8">
+        <f>E43/((E36+E29+E22+E15+E8)/5)</f>
+        <v>4.1813564547092668</v>
+      </c>
+      <c r="M8">
+        <f>F43/((F36+F29+F22+F15+F8)/5)</f>
+        <v>2.5680269864532539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8">
-        <v>87.823333333333295</v>
-      </c>
-      <c r="D8">
-        <v>28.635166666666599</v>
-      </c>
-      <c r="E8">
-        <v>78.55</v>
-      </c>
-      <c r="F8">
-        <v>14.1491666666667</v>
-      </c>
-      <c r="H8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8">
-        <f>C19/((C7+C13+C24+C29)/4)</f>
-        <v>2.2659968594012718</v>
-      </c>
-      <c r="K8">
-        <f>E34/((E29+E24+E19+E13+E7)/5)</f>
-        <v>4.1813564547092668</v>
-      </c>
-      <c r="L8">
-        <f>F34/((F29+F24+F19+F13+F7)/5)</f>
-        <v>2.5680269864532539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9">
-        <v>65.501818181818194</v>
-      </c>
-      <c r="D9">
-        <v>17.308</v>
-      </c>
-      <c r="E9">
-        <v>87.26</v>
-      </c>
-      <c r="F9">
-        <v>23.6204545454545</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B9" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="I9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C10">
-        <v>69.085454545454496</v>
+        <v>87.823333333333295</v>
       </c>
       <c r="D10">
-        <v>30.919218327425199</v>
+        <v>28.635166666666599</v>
       </c>
       <c r="E10">
-        <v>77.154545454545499</v>
+        <v>78.55</v>
       </c>
       <c r="F10">
-        <v>15.340909090909101</v>
-      </c>
-      <c r="J10" t="e">
-        <f>1/J8</f>
+        <v>14.1491666666667</v>
+      </c>
+      <c r="K10" t="e">
+        <f>1/K8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C11">
-        <v>45.057272727272696</v>
+        <v>65.501818181818194</v>
       </c>
       <c r="D11">
-        <v>17.6929592230555</v>
+        <v>17.308</v>
       </c>
       <c r="E11">
-        <v>97.25</v>
+        <v>87.26</v>
       </c>
       <c r="F11">
-        <v>17.157272727272701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23.6204545454545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12">
+        <v>69.085454545454496</v>
+      </c>
+      <c r="D12">
+        <v>30.919218327425199</v>
+      </c>
+      <c r="E12">
+        <v>77.154545454545499</v>
+      </c>
+      <c r="F12">
+        <v>15.340909090909101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13">
+        <v>45.057272727272696</v>
+      </c>
+      <c r="D13">
+        <v>17.6929592230555</v>
+      </c>
+      <c r="E13">
+        <v>97.25</v>
+      </c>
+      <c r="F13">
+        <v>17.157272727272701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>2022</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>55.671862221280499</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="29">
         <v>26.433521757948</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>97.509087272727299</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>5.0159090909091004</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="6">
-        <f>AVERAGE(C8:C12)</f>
+      <c r="C15" s="6">
+        <f>AVERAGE(C10:C14)</f>
         <v>64.627948201831842</v>
       </c>
-      <c r="D13" s="6">
-        <f>AVERAGE(D8:D12)</f>
+      <c r="D15" s="6">
+        <f>AVERAGE(D10:D14)</f>
         <v>24.19777319501906</v>
       </c>
-      <c r="E13" s="6">
-        <f>AVERAGE(E8:E12)</f>
+      <c r="E15" s="6">
+        <f>AVERAGE(E10:E14)</f>
         <v>87.544726545454552</v>
       </c>
-      <c r="F13" s="6">
-        <f>AVERAGE(F8:F12)</f>
+      <c r="F15" s="6">
+        <f>AVERAGE(F10:F14)</f>
         <v>15.056742424242421</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>2018</v>
-      </c>
-      <c r="C14">
-        <v>126.19499999999999</v>
-      </c>
-      <c r="D14">
-        <v>25.657222222222199</v>
-      </c>
-      <c r="E14">
-        <v>110.6</v>
-      </c>
-      <c r="F14">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>2019</v>
-      </c>
-      <c r="C15">
-        <v>108.42090909090901</v>
-      </c>
-      <c r="D15">
-        <v>18.091045590734101</v>
-      </c>
-      <c r="E15">
-        <v>116.8</v>
-      </c>
-      <c r="F15">
-        <v>6.7949999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="C16">
-        <v>122.10590909090899</v>
-      </c>
-      <c r="D16">
-        <v>22.244218933636098</v>
-      </c>
-      <c r="E16">
-        <v>103.263636363636</v>
-      </c>
-      <c r="F16">
-        <v>20.082727272727301</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -72779,19 +72780,19 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C17">
-        <v>104.65272727272701</v>
+        <v>126.19499999999999</v>
       </c>
       <c r="D17">
-        <v>19.928571428571399</v>
+        <v>25.657222222222199</v>
       </c>
       <c r="E17">
-        <v>127.17727272727301</v>
+        <v>110.6</v>
       </c>
       <c r="F17">
-        <v>7.7418181818181804</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -72799,103 +72800,103 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C18">
-        <v>135.59274976015499</v>
+        <v>108.42090909090901</v>
       </c>
       <c r="D18">
-        <v>18.417329985504001</v>
+        <v>18.091045590734101</v>
       </c>
       <c r="E18">
-        <v>129.254545454545</v>
+        <v>116.8</v>
       </c>
       <c r="F18">
-        <v>5.0936363636363602</v>
+        <v>6.7949999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="6">
-        <f>AVERAGE(C14:C18)</f>
-        <v>119.39345904294001</v>
-      </c>
-      <c r="D19" s="6">
-        <f>AVERAGE(D14:D18)</f>
-        <v>20.867677632133557</v>
-      </c>
-      <c r="E19" s="6">
-        <f>AVERAGE(E14:E18)</f>
-        <v>117.4190909090908</v>
-      </c>
-      <c r="F19" s="6">
-        <f>AVERAGE(F14:F18)</f>
-        <v>9.2666363636363691</v>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>122.10590909090899</v>
+      </c>
+      <c r="D19">
+        <v>22.244218933636098</v>
+      </c>
+      <c r="E19">
+        <v>103.263636363636</v>
+      </c>
+      <c r="F19">
+        <v>20.082727272727301</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C20">
-        <v>33.569090909090903</v>
+        <v>104.65272727272701</v>
       </c>
       <c r="D20">
-        <v>29.4881635137518</v>
+        <v>19.928571428571399</v>
       </c>
       <c r="E20">
-        <v>119.027272727273</v>
+        <v>127.17727272727301</v>
       </c>
       <c r="F20">
-        <v>3.7590909090909101</v>
+        <v>7.7418181818181804</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C21">
-        <v>42.3795454545455</v>
+        <v>135.59274976015499</v>
       </c>
       <c r="D21">
-        <v>29.582878047772802</v>
+        <v>18.417329985504001</v>
       </c>
       <c r="E21">
-        <v>94.023636363636001</v>
+        <v>129.254545454545</v>
       </c>
       <c r="F21">
-        <v>9.4509090909090894</v>
+        <v>5.0936363636363602</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>2021</v>
-      </c>
-      <c r="C22">
-        <v>21.77</v>
-      </c>
-      <c r="D22">
-        <v>26.238559115184099</v>
-      </c>
-      <c r="E22">
-        <v>126.004545454546</v>
-      </c>
-      <c r="F22">
-        <v>5.8671818181818196</v>
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="6">
+        <f>AVERAGE(C17:C21)</f>
+        <v>119.39345904294001</v>
+      </c>
+      <c r="D22" s="6">
+        <f>AVERAGE(D17:D21)</f>
+        <v>20.867677632133557</v>
+      </c>
+      <c r="E22" s="6">
+        <f>AVERAGE(E17:E21)</f>
+        <v>117.4190909090908</v>
+      </c>
+      <c r="F22" s="6">
+        <f>AVERAGE(F17:F21)</f>
+        <v>9.2666363636363691</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -72903,310 +72904,418 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>2022</v>
-      </c>
-      <c r="C23">
-        <v>40.973233993291799</v>
-      </c>
-      <c r="D23">
-        <v>25.7270722594109</v>
-      </c>
-      <c r="E23">
-        <v>130.87272727272699</v>
-      </c>
-      <c r="F23">
-        <v>3.3613636363636301</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="6">
-        <f>AVERAGE(C20:C23)</f>
-        <v>34.672967589232051</v>
-      </c>
-      <c r="D24" s="6">
-        <f>AVERAGE(D20:D23)</f>
-        <v>27.7591682340299</v>
-      </c>
-      <c r="E24" s="6">
-        <f>AVERAGE(E20:E23)</f>
-        <v>117.4820454545455</v>
-      </c>
-      <c r="F24" s="6">
-        <f>AVERAGE(F20:F23)</f>
-        <v>5.6096363636363629</v>
+      <c r="B24">
+        <v>2018</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>2019</v>
       </c>
       <c r="C25">
-        <v>51.166818181818201</v>
+        <v>33.569090909090903</v>
       </c>
       <c r="D25">
-        <v>12.4531264476896</v>
+        <v>29.4881635137518</v>
       </c>
       <c r="E25">
-        <v>131.963636363636</v>
+        <v>119.027272727273</v>
       </c>
       <c r="F25">
-        <v>6.3804545454545396</v>
+        <v>3.7590909090909101</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>68.967727272727203</v>
+        <v>42.3795454545455</v>
       </c>
       <c r="D26">
-        <v>28.161985368056399</v>
+        <v>29.582878047772802</v>
       </c>
       <c r="E26">
-        <v>114.7</v>
+        <v>94.023636363636001</v>
       </c>
       <c r="F26">
-        <v>9.9659090909090899</v>
+        <v>9.4509090909090894</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2021</v>
       </c>
       <c r="C27">
-        <v>55.923636363636398</v>
+        <v>21.77</v>
       </c>
       <c r="D27">
-        <v>24.922707709955599</v>
+        <v>26.238559115184099</v>
       </c>
       <c r="E27">
-        <v>139.245454545455</v>
+        <v>126.004545454546</v>
       </c>
       <c r="F27">
-        <v>6.9913636363636398</v>
+        <v>5.8671818181818196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>2022</v>
       </c>
       <c r="C28">
-        <v>51.400629993253297</v>
+        <v>40.973233993291799</v>
       </c>
       <c r="D28">
-        <v>18.123651515436599</v>
+        <v>25.7270722594109</v>
       </c>
       <c r="E28">
-        <v>140.027227272727</v>
+        <v>130.87272727272699</v>
       </c>
       <c r="F28">
-        <v>2.6431818181818101</v>
+        <v>3.3613636363636301</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="6">
         <f>AVERAGE(C25:C28)</f>
-        <v>56.864702952858771</v>
+        <v>34.672967589232051</v>
       </c>
       <c r="D29" s="6">
         <f>AVERAGE(D25:D28)</f>
-        <v>20.915367760284546</v>
+        <v>27.7591682340299</v>
       </c>
       <c r="E29" s="6">
         <f>AVERAGE(E25:E28)</f>
-        <v>131.48407954545451</v>
+        <v>117.4820454545455</v>
       </c>
       <c r="F29" s="6">
         <f>AVERAGE(F25:F28)</f>
-        <v>6.49522727272727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.6096363636363629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
         <v>2019</v>
       </c>
-      <c r="C30">
-        <v>214.3</v>
-      </c>
-      <c r="D30">
-        <v>14.9926853412718</v>
-      </c>
-      <c r="E30">
-        <v>418.5</v>
-      </c>
-      <c r="F30">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>2020</v>
-      </c>
-      <c r="C31">
-        <v>227.46727272727301</v>
-      </c>
-      <c r="D31">
-        <v>15.260111218723999</v>
-      </c>
-      <c r="E31">
-        <v>252.45454545454501</v>
-      </c>
-      <c r="F31">
-        <v>18.441818181818199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>2021</v>
-      </c>
       <c r="C32">
-        <v>227.01272727272701</v>
+        <v>51.166818181818201</v>
       </c>
       <c r="D32">
-        <v>23.406811403946701</v>
+        <v>12.4531264476896</v>
       </c>
       <c r="E32">
-        <v>380.536445454545</v>
+        <v>131.963636363636</v>
       </c>
       <c r="F32">
-        <v>19.52</v>
+        <v>6.3804545454545396</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>68.967727272727203</v>
+      </c>
+      <c r="D33">
+        <v>28.161985368056399</v>
+      </c>
+      <c r="E33">
+        <v>114.7</v>
+      </c>
+      <c r="F33">
+        <v>9.9659090909090899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34">
+        <v>55.923636363636398</v>
+      </c>
+      <c r="D34">
+        <v>24.922707709955599</v>
+      </c>
+      <c r="E34">
+        <v>139.245454545455</v>
+      </c>
+      <c r="F34">
+        <v>6.9913636363636398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
         <v>2022</v>
       </c>
-      <c r="C33">
-        <v>297.42214761093902</v>
-      </c>
-      <c r="D33">
-        <v>16.602574281092998</v>
-      </c>
-      <c r="E33">
-        <v>725.23636363636399</v>
-      </c>
-      <c r="F33">
-        <v>29.922272727272698</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="C35">
+        <v>51.400629993253297</v>
+      </c>
+      <c r="D35">
+        <v>18.123651515436599</v>
+      </c>
+      <c r="E35">
+        <v>140.027227272727</v>
+      </c>
+      <c r="F35">
+        <v>2.6431818181818101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="6">
-        <f>AVERAGE(C30:C33)</f>
-        <v>241.55053690273479</v>
-      </c>
-      <c r="D34" s="6">
-        <f>AVERAGE(D30:D33)</f>
-        <v>17.565545561258876</v>
-      </c>
-      <c r="E34" s="6">
-        <f>AVERAGE(E30:E33)</f>
-        <v>444.18183863636352</v>
-      </c>
-      <c r="F34" s="6">
-        <f>AVERAGE(F30:F33)</f>
-        <v>19.106022727272723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36">
-        <f>AVERAGE(C2:C6,C8:C12,C14:C18,C20:C23)</f>
-        <v>70.092310872673011</v>
-      </c>
-      <c r="D36">
-        <f>AVERAGE(D2:D6,D8:D12,D14:D18,D20:D23)</f>
-        <v>24.91389089852014</v>
-      </c>
-      <c r="E36">
-        <f>AVERAGE(E2:E6,E8:E12,E14:E18,E20:E23)</f>
-        <v>98.990825717428336</v>
-      </c>
-      <c r="F36">
-        <f>AVERAGE(F2:F6,F8:F12,F14:F18,F20:F23)</f>
-        <v>7.784909090909089</v>
+      <c r="C36" s="6">
+        <f>AVERAGE(C31:C35)</f>
+        <v>56.864702952858771</v>
+      </c>
+      <c r="D36" s="6">
+        <f>AVERAGE(D31:D35)</f>
+        <v>20.915367760284546</v>
+      </c>
+      <c r="E36" s="6">
+        <f>AVERAGE(E31:E35)</f>
+        <v>131.48407954545451</v>
+      </c>
+      <c r="F36" s="6">
+        <f>AVERAGE(F31:F35)</f>
+        <v>6.49522727272727</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>536</v>
+      </c>
+      <c r="B37">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2019</v>
+      </c>
+      <c r="C39">
+        <v>214.3</v>
+      </c>
+      <c r="D39">
+        <v>14.9926853412718</v>
+      </c>
+      <c r="E39">
+        <v>418.5</v>
+      </c>
+      <c r="F39">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40">
+        <v>227.46727272727301</v>
+      </c>
+      <c r="D40">
+        <v>15.260111218723999</v>
+      </c>
+      <c r="E40">
+        <v>252.45454545454501</v>
+      </c>
+      <c r="F40">
+        <v>18.441818181818199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>227.01272727272701</v>
+      </c>
+      <c r="D41">
+        <v>23.406811403946701</v>
+      </c>
+      <c r="E41">
+        <v>380.536445454545</v>
+      </c>
+      <c r="F41">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>297.42214761093902</v>
+      </c>
+      <c r="D42">
+        <v>16.602574281092998</v>
+      </c>
+      <c r="E42">
+        <v>725.23636363636399</v>
+      </c>
+      <c r="F42">
+        <v>29.922272727272698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="6">
+        <f>AVERAGE(C38:C42)</f>
+        <v>241.55053690273479</v>
+      </c>
+      <c r="D43" s="6">
+        <f>AVERAGE(D38:D42)</f>
+        <v>17.565545561258876</v>
+      </c>
+      <c r="E43" s="6">
+        <f>AVERAGE(E38:E42)</f>
+        <v>444.18183863636352</v>
+      </c>
+      <c r="F43" s="6">
+        <f>AVERAGE(F38:F42)</f>
+        <v>19.106022727272723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C3:C7,C10:C14,C17:C21,C25:C28)</f>
+        <v>70.092310872673011</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(D3:D7,D10:D14,D17:D21,D25:D28)</f>
+        <v>24.91389089852014</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(E3:E7,E10:E14,E17:E21,E25:E28)</f>
+        <v>98.990825717428336</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(F3:F7,F10:F14,F17:F21,F25:F28)</f>
+        <v>7.784909090909089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>114</v>
       </c>
-      <c r="C37">
-        <f>AVERAGE(C30:C33,C25:C28)</f>
+      <c r="C46">
+        <f>AVERAGE(C38:C42,C31:C35)</f>
         <v>149.20761992779677</v>
       </c>
-      <c r="D37">
-        <f>AVERAGE(D30:D33,D25:D28)</f>
+      <c r="D46">
+        <f>AVERAGE(D38:D42,D31:D35)</f>
         <v>19.240456660771713</v>
       </c>
-      <c r="E37">
-        <f>AVERAGE(E30:E33,E25:E28)</f>
+      <c r="E46">
+        <f>AVERAGE(E38:E42,E31:E35)</f>
         <v>287.83295909090901</v>
       </c>
-      <c r="F37">
-        <f>AVERAGE(F30:F33,F25:F28)</f>
+      <c r="F46">
+        <f>AVERAGE(F38:F42,F31:F35)</f>
         <v>12.800624999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <f>C37/C36</f>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>C46/C45</f>
         <v>2.1287302140578812</v>
       </c>
-      <c r="D38">
-        <f>D37/D36</f>
+      <c r="D47">
+        <f>D46/D45</f>
         <v>0.77227827396139781</v>
       </c>
-      <c r="E38">
-        <f>E37/E36</f>
+      <c r="E47">
+        <f>E46/E45</f>
         <v>2.9076730798522181</v>
       </c>
-      <c r="F38">
-        <f>F37/F36</f>
+      <c r="F47">
+        <f>F46/F45</f>
         <v>1.644287023845669</v>
       </c>
     </row>
@@ -79163,10 +79272,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AL94"/>
+  <dimension ref="A1:AL177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -79176,7 +79285,7 @@
     <col min="6" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -79216,8 +79325,26 @@
       <c r="N1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -79262,8 +79389,23 @@
         <f>O2/6</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2">
+        <v>160</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2">
+        <v>200</v>
+      </c>
+      <c r="V2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -79308,8 +79450,23 @@
         <f>O3/6</f>
         <v>10.333333333333334</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3">
+        <v>62</v>
+      </c>
+      <c r="T3">
+        <v>180</v>
+      </c>
+      <c r="U3">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -79354,8 +79511,23 @@
         <f>O4/4</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>12</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -79400,8 +79572,23 @@
         <f>O5/4</f>
         <v>9.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <v>9</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -79450,8 +79637,27 @@
         <f>O6/4</f>
         <v>9.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S6">
+        <f>SUM(S2:S3)</f>
+        <v>222</v>
+      </c>
+      <c r="T6">
+        <f>SUM(T2:T3)</f>
+        <v>225</v>
+      </c>
+      <c r="U6">
+        <f>SUM(U2:U3)</f>
+        <v>224</v>
+      </c>
+      <c r="V6">
+        <f>SUM(V2:V3)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -79503,8 +79709,30 @@
         <f>O7/5</f>
         <v>11.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" s="1">
+        <f>(S2-S4)/S6</f>
+        <v>0.65765765765765771</v>
+      </c>
+      <c r="T7" s="2">
+        <f>(T3-T5)/T6</f>
+        <v>0.76</v>
+      </c>
+      <c r="U7" s="1">
+        <f>(U2-U4)/U6</f>
+        <v>0.8705357142857143</v>
+      </c>
+      <c r="V7" s="2">
+        <f>(V3-V5)/V6</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -79561,13 +79789,38 @@
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8">
+        <f>(S3-S5)/S6</f>
+        <v>0.23873873873873874</v>
+      </c>
+      <c r="T8">
+        <f>(T2-T4)/T6</f>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="U8">
+        <f>(U3-U5)/U6</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V8">
+        <f>(V2-V4)/V6</f>
+        <v>0.37662337662337664</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -79607,8 +79860,23 @@
       <c r="N10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10">
+        <v>48</v>
+      </c>
+      <c r="T10">
+        <v>149</v>
+      </c>
+      <c r="U10">
+        <v>25</v>
+      </c>
+      <c r="V10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -79653,8 +79921,23 @@
         <f>O11/6</f>
         <v>9.3333333333333339</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11">
+        <v>173</v>
+      </c>
+      <c r="T11">
+        <v>75</v>
+      </c>
+      <c r="U11">
+        <v>198</v>
+      </c>
+      <c r="V11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -79699,8 +79982,23 @@
         <f>O12/6</f>
         <v>8.1666666666666661</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>119</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>14</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -79745,8 +80043,23 @@
         <f>O13/4</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -79795,8 +80108,27 @@
         <f>O14/4</f>
         <v>7.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S10:S11)</f>
+        <v>221</v>
+      </c>
+      <c r="T14">
+        <f>SUM(T10:T11)</f>
+        <v>224</v>
+      </c>
+      <c r="U14">
+        <f>SUM(U10:U11)</f>
+        <v>223</v>
+      </c>
+      <c r="V14">
+        <f>SUM(V10:V11)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -79848,8 +80180,30 @@
         <f>O15/4</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15" s="2">
+        <f>(S11-S13)/S14</f>
+        <v>0.73755656108597289</v>
+      </c>
+      <c r="T15" s="1">
+        <f>(T10-T12)/T14</f>
+        <v>0.6026785714285714</v>
+      </c>
+      <c r="U15" s="2">
+        <f>(U11-U13)/U14</f>
+        <v>0.8699551569506726</v>
+      </c>
+      <c r="V15" s="1">
+        <f>(V10-V12)/V14</f>
+        <v>0.83478260869565213</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -79890,13 +80244,38 @@
       <c r="M16">
         <v>10</v>
       </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
       <c r="O16">
         <f>SUM(J16:N16)</f>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P16">
         <f>O16/5</f>
-        <v>8.8000000000000007</v>
+        <v>10.6</v>
+      </c>
+      <c r="R16" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16">
+        <f>(S10-S12)/S14</f>
+        <v>0.18552036199095023</v>
+      </c>
+      <c r="T16">
+        <f>(T11-T13)/T14</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U16">
+        <f>(U10-U12)/U14</f>
+        <v>8.520179372197309E-2</v>
+      </c>
+      <c r="V16">
+        <f>(V11-V13)/V14</f>
+        <v>5.6521739130434782E-2</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -79907,19 +80286,19 @@
         <v>126</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:O17" si="1">SUM(I11:I16)</f>
+        <f>SUM(I11:I16)</f>
         <v>13</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f>SUM(J11:J16)</f>
         <v>34</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f>SUM(K11:K16)</f>
         <v>65</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I17:O17" si="1">SUM(L11:L16)</f>
         <v>80</v>
       </c>
       <c r="M17">
@@ -79928,11 +80307,11 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -85241,9 +85620,5277 @@
         <v>0</v>
       </c>
     </row>
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A106" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" t="s">
+        <v>141</v>
+      </c>
+      <c r="O107" t="s">
+        <v>142</v>
+      </c>
+      <c r="U107" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="G108" t="s">
+        <v>115</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" t="s">
+        <v>54</v>
+      </c>
+      <c r="K108" t="s">
+        <v>44</v>
+      </c>
+      <c r="L108" t="s">
+        <v>45</v>
+      </c>
+      <c r="O108" t="s">
+        <v>115</v>
+      </c>
+      <c r="P108" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>54</v>
+      </c>
+      <c r="R108" t="s">
+        <v>44</v>
+      </c>
+      <c r="S108" t="s">
+        <v>45</v>
+      </c>
+      <c r="U108" t="s">
+        <v>115</v>
+      </c>
+      <c r="V108" t="s">
+        <v>46</v>
+      </c>
+      <c r="W108" t="s">
+        <v>54</v>
+      </c>
+      <c r="X108" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>117</v>
+      </c>
+      <c r="H109">
+        <v>12</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>16</v>
+      </c>
+      <c r="L109">
+        <v>12</v>
+      </c>
+      <c r="O109" t="s">
+        <v>117</v>
+      </c>
+      <c r="P109">
+        <v>12</v>
+      </c>
+      <c r="Q109">
+        <v>3</v>
+      </c>
+      <c r="R109">
+        <v>12</v>
+      </c>
+      <c r="S109">
+        <v>8</v>
+      </c>
+      <c r="U109" t="s">
+        <v>117</v>
+      </c>
+      <c r="V109">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>3</v>
+      </c>
+      <c r="X109">
+        <v>9</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB109">
+        <v>4</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>3</v>
+      </c>
+      <c r="AE109">
+        <v>1</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH109">
+        <v>3</v>
+      </c>
+      <c r="AI109">
+        <v>1</v>
+      </c>
+      <c r="AJ109">
+        <v>8</v>
+      </c>
+      <c r="AK109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>19</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>9</v>
+      </c>
+      <c r="O110" t="s">
+        <v>118</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>15</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>10</v>
+      </c>
+      <c r="U110" t="s">
+        <v>118</v>
+      </c>
+      <c r="V110">
+        <v>7</v>
+      </c>
+      <c r="W110">
+        <v>6</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>8</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>4</v>
+      </c>
+      <c r="AD110">
+        <v>1</v>
+      </c>
+      <c r="AE110">
+        <v>3</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH110">
+        <v>2</v>
+      </c>
+      <c r="AI110">
+        <v>9</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>119</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>119</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="U111" t="s">
+        <v>119</v>
+      </c>
+      <c r="V111">
+        <v>1</v>
+      </c>
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>1</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>1</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>120</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>120</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="U112" t="s">
+        <v>120</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>2</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="10">
+        <f t="shared" ref="B113:E113" si="43">B109-B111</f>
+        <v>4</v>
+      </c>
+      <c r="C113" s="10">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="D113" s="10">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="E113" s="10">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="10">
+        <f t="shared" ref="H113:L113" si="44">H109-H111</f>
+        <v>12</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10">
+        <f t="shared" ref="J113:N113" si="45">J109-J111</f>
+        <v>1</v>
+      </c>
+      <c r="K113" s="10">
+        <f t="shared" si="45"/>
+        <v>15</v>
+      </c>
+      <c r="L113" s="10">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="O113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P113" s="10">
+        <f t="shared" ref="P113:S113" si="46">P109-P111</f>
+        <v>11</v>
+      </c>
+      <c r="Q113" s="10">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="R113" s="10">
+        <f t="shared" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="S113" s="10">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="U113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V113" s="10">
+        <f t="shared" ref="V113:Y113" si="47">V109-V111</f>
+        <v>4</v>
+      </c>
+      <c r="W113" s="10">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="X113" s="10">
+        <f t="shared" si="47"/>
+        <v>9</v>
+      </c>
+      <c r="Y113" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AA113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB113" s="10">
+        <f t="shared" ref="AB113:AE113" si="48">AB109-AB111</f>
+        <v>4</v>
+      </c>
+      <c r="AC113" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AD113" s="10">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="AE113" s="10">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH113" s="10">
+        <f t="shared" ref="AH113:AK113" si="49">AH109-AH111</f>
+        <v>3</v>
+      </c>
+      <c r="AI113" s="10">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AJ113" s="10">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="AK113" s="10">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" s="10">
+        <f t="shared" ref="B114:E114" si="50">B110-B112</f>
+        <v>3</v>
+      </c>
+      <c r="C114" s="10">
+        <f t="shared" si="50"/>
+        <v>11</v>
+      </c>
+      <c r="D114" s="10">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="E114" s="10">
+        <f t="shared" si="50"/>
+        <v>8</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H114" s="10">
+        <f t="shared" ref="H114:L114" si="51">H110-H112</f>
+        <v>6</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10">
+        <f t="shared" ref="J114:N114" si="52">J110-J112</f>
+        <v>19</v>
+      </c>
+      <c r="K114" s="10">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="L114" s="10">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="O114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P114" s="10">
+        <f t="shared" ref="P114:S114" si="53">P110-P112</f>
+        <v>5</v>
+      </c>
+      <c r="Q114" s="10">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+      <c r="R114" s="10">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="S114" s="10">
+        <f t="shared" si="53"/>
+        <v>7</v>
+      </c>
+      <c r="U114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V114" s="10">
+        <f t="shared" ref="V114:Y114" si="54">V110-V112</f>
+        <v>4</v>
+      </c>
+      <c r="W114" s="10">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="X114" s="10">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y114" s="10">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+      <c r="AA114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB114" s="10">
+        <f t="shared" ref="AB114:AE114" si="55">AB110-AB112</f>
+        <v>0</v>
+      </c>
+      <c r="AC114" s="10">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AD114" s="10">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AE114" s="10">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AG114" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH114" s="10">
+        <f t="shared" ref="AH114:AK114" si="56">AH110-AH112</f>
+        <v>2</v>
+      </c>
+      <c r="AI114" s="10">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="AJ114" s="10">
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AK114" s="10">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115">
+        <f>B109+B110</f>
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ref="C115:Y115" si="57">C109+C110</f>
+        <v>15</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>148</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ref="H115:AD115" si="58">H109+H110</f>
+        <v>18</v>
+      </c>
+      <c r="J115">
+        <f t="shared" ref="J115:AF115" si="59">J109+J110</f>
+        <v>21</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="59"/>
+        <v>21</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>148</v>
+      </c>
+      <c r="P115">
+        <f t="shared" ref="P115:AK115" si="60">P109+P110</f>
+        <v>18</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="U115" t="s">
+        <v>148</v>
+      </c>
+      <c r="V115">
+        <f t="shared" ref="V115:AK115" si="61">V109+V110</f>
+        <v>12</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB115">
+        <f>AB109+AB110</f>
+        <v>4</v>
+      </c>
+      <c r="AC115">
+        <f>AC109+AC110</f>
+        <v>4</v>
+      </c>
+      <c r="AD115">
+        <f>AD109+AD110</f>
+        <v>4</v>
+      </c>
+      <c r="AE115">
+        <f>AE109+AE110</f>
+        <v>4</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH115">
+        <f>AH109+AH110</f>
+        <v>5</v>
+      </c>
+      <c r="AI115">
+        <f>AI109+AI110</f>
+        <v>10</v>
+      </c>
+      <c r="AJ115">
+        <f>AJ109+AJ110</f>
+        <v>10</v>
+      </c>
+      <c r="AK115">
+        <f>AK109+AK110</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116">
+        <f>B113/B115</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C116">
+        <f>C113/C115</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D116">
+        <f>D113/D115</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E116">
+        <f>E113/E115</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116">
+        <f>H113/H115</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J116">
+        <f>J113/J115</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="K116">
+        <f>K113/K115</f>
+        <v>0.75</v>
+      </c>
+      <c r="L116">
+        <f>L113/L115</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="O116" t="s">
+        <v>149</v>
+      </c>
+      <c r="P116">
+        <f>P113/P115</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="Q116">
+        <f>Q113/Q115</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R116">
+        <f>R113/R115</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="S116">
+        <f>S113/S115</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="U116" t="s">
+        <v>149</v>
+      </c>
+      <c r="V116">
+        <f>V113/V115</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W116">
+        <f>W113/W115</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="X116">
+        <f>X113/X115</f>
+        <v>1</v>
+      </c>
+      <c r="Y116">
+        <f>Y113/Y115</f>
+        <v>0</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB116">
+        <f>AB113/AB115</f>
+        <v>1</v>
+      </c>
+      <c r="AC116">
+        <f>AC113/AC115</f>
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <f>AD113/AD115</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE116">
+        <f>AE113/AE115</f>
+        <v>0</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH116">
+        <f>AH113/AH115</f>
+        <v>0.6</v>
+      </c>
+      <c r="AI116">
+        <f>AI113/AI115</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ116">
+        <f>AJ113/AJ115</f>
+        <v>0.8</v>
+      </c>
+      <c r="AK116">
+        <f>AK113/AK115</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117">
+        <f>B114/B115</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C117">
+        <f>C114/C115</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D117">
+        <f>D114/D115</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E117">
+        <f>E114/E115</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G117" t="s">
+        <v>150</v>
+      </c>
+      <c r="H117">
+        <f>H114/H115</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J117">
+        <f>J114/J115</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="K117">
+        <f>K114/K115</f>
+        <v>0.05</v>
+      </c>
+      <c r="L117">
+        <f>L114/L115</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="O117" t="s">
+        <v>150</v>
+      </c>
+      <c r="P117">
+        <f t="shared" ref="P117:Y117" si="62">P114/P115</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="62"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="62"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="62"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="U117" t="s">
+        <v>150</v>
+      </c>
+      <c r="V117">
+        <f t="shared" ref="V117:AE117" si="63">V114/V115</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="63"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="63"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB117">
+        <f>AB114/AB115</f>
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <f>AC114/AC115</f>
+        <v>1</v>
+      </c>
+      <c r="AD117">
+        <f>AD114/AD115</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE117">
+        <f>AE114/AE115</f>
+        <v>0.75</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH117">
+        <f>AH114/AH115</f>
+        <v>0.4</v>
+      </c>
+      <c r="AI117">
+        <f>AI114/AI115</f>
+        <v>0.9</v>
+      </c>
+      <c r="AJ117">
+        <f>AJ114/AJ115</f>
+        <v>0.2</v>
+      </c>
+      <c r="AK117">
+        <f>AK114/AK115</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>151</v>
+      </c>
+      <c r="G119" t="s">
+        <v>152</v>
+      </c>
+      <c r="O119" t="s">
+        <v>153</v>
+      </c>
+      <c r="U119" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
+        <v>115</v>
+      </c>
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" t="s">
+        <v>54</v>
+      </c>
+      <c r="K120" t="s">
+        <v>44</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="O120" t="s">
+        <v>115</v>
+      </c>
+      <c r="P120" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>54</v>
+      </c>
+      <c r="R120" t="s">
+        <v>44</v>
+      </c>
+      <c r="S120" t="s">
+        <v>45</v>
+      </c>
+      <c r="U120" t="s">
+        <v>115</v>
+      </c>
+      <c r="V120" t="s">
+        <v>46</v>
+      </c>
+      <c r="W120" t="s">
+        <v>54</v>
+      </c>
+      <c r="X120" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>117</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>10</v>
+      </c>
+      <c r="L121">
+        <v>7</v>
+      </c>
+      <c r="O121" t="s">
+        <v>117</v>
+      </c>
+      <c r="P121">
+        <v>7</v>
+      </c>
+      <c r="Q121">
+        <v>6</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>5</v>
+      </c>
+      <c r="U121" t="s">
+        <v>117</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>6</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>2</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB121">
+        <v>5</v>
+      </c>
+      <c r="AC121">
+        <v>1</v>
+      </c>
+      <c r="AD121">
+        <v>5</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH121">
+        <v>4</v>
+      </c>
+      <c r="AI121">
+        <v>1</v>
+      </c>
+      <c r="AJ121">
+        <v>5</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>118</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>6</v>
+      </c>
+      <c r="O122" t="s">
+        <v>118</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="U122" t="s">
+        <v>118</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>4</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>8</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>4</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>5</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH122">
+        <v>1</v>
+      </c>
+      <c r="AI122">
+        <v>6</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>119</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>119</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="U123" t="s">
+        <v>119</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>1</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB123">
+        <v>1</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>1</v>
+      </c>
+      <c r="AG123" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>120</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>120</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="U124" t="s">
+        <v>120</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>1</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="10">
+        <f t="shared" ref="B125:E125" si="64">B121-B123</f>
+        <v>7</v>
+      </c>
+      <c r="C125" s="10">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="D125" s="10">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+      <c r="E125" s="10">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H125" s="10">
+        <f t="shared" ref="H125:L125" si="65">H121-H123</f>
+        <v>8</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10">
+        <f t="shared" ref="J125:N125" si="66">J121-J123</f>
+        <v>6</v>
+      </c>
+      <c r="K125" s="10">
+        <f t="shared" si="66"/>
+        <v>10</v>
+      </c>
+      <c r="L125" s="10">
+        <f t="shared" si="66"/>
+        <v>7</v>
+      </c>
+      <c r="O125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P125" s="10">
+        <f t="shared" ref="P125:S125" si="67">P121-P123</f>
+        <v>6</v>
+      </c>
+      <c r="Q125" s="10">
+        <f t="shared" si="67"/>
+        <v>4</v>
+      </c>
+      <c r="R125" s="10">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="S125" s="10">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="U125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V125" s="10">
+        <f t="shared" ref="V125:Y125" si="68">V121-V123</f>
+        <v>0</v>
+      </c>
+      <c r="W125" s="10">
+        <f t="shared" si="68"/>
+        <v>6</v>
+      </c>
+      <c r="X125" s="10">
+        <f t="shared" si="68"/>
+        <v>9</v>
+      </c>
+      <c r="Y125" s="10">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="AA125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB125" s="10">
+        <f t="shared" ref="AB125:AE125" si="69">AB121-AB123</f>
+        <v>4</v>
+      </c>
+      <c r="AC125" s="10">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AD125" s="10">
+        <f t="shared" si="69"/>
+        <v>5</v>
+      </c>
+      <c r="AE125" s="10">
+        <f t="shared" si="69"/>
+        <v>-1</v>
+      </c>
+      <c r="AG125" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH125" s="10">
+        <f t="shared" ref="AH125:AK125" si="70">AH121-AH123</f>
+        <v>4</v>
+      </c>
+      <c r="AI125" s="10">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="AJ125" s="10">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+      <c r="AK125" s="10">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="10">
+        <f t="shared" ref="B126:E126" si="71">B122-B124</f>
+        <v>3</v>
+      </c>
+      <c r="C126" s="10">
+        <f t="shared" si="71"/>
+        <v>9</v>
+      </c>
+      <c r="D126" s="10">
+        <f t="shared" si="71"/>
+        <v>2</v>
+      </c>
+      <c r="E126" s="10">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H126" s="10">
+        <f t="shared" ref="H126:L126" si="72">H122-H124</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10">
+        <f t="shared" ref="J126:N126" si="73">J122-J124</f>
+        <v>7</v>
+      </c>
+      <c r="K126" s="10">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="L126" s="10">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P126" s="10">
+        <f t="shared" ref="P126:S126" si="74">P122-P124</f>
+        <v>2</v>
+      </c>
+      <c r="Q126" s="10">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="R126" s="10">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="S126" s="10">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="U126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V126" s="10">
+        <f t="shared" ref="V126:Y126" si="75">V122-V124</f>
+        <v>0</v>
+      </c>
+      <c r="W126" s="10">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="X126" s="10">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="Y126" s="10">
+        <f t="shared" si="75"/>
+        <v>7</v>
+      </c>
+      <c r="AA126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB126" s="10">
+        <f t="shared" ref="AB126:AE126" si="76">AB122-AB124</f>
+        <v>0</v>
+      </c>
+      <c r="AC126" s="10">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="AD126" s="10">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AE126" s="10">
+        <f t="shared" si="76"/>
+        <v>4</v>
+      </c>
+      <c r="AG126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH126" s="10">
+        <f t="shared" ref="AH126:AK126" si="77">AH122-AH124</f>
+        <v>1</v>
+      </c>
+      <c r="AI126" s="10">
+        <f t="shared" si="77"/>
+        <v>6</v>
+      </c>
+      <c r="AJ126" s="10">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AK126" s="10">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127">
+        <f>B121+B122</f>
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:Y127" si="78">C121+C122</f>
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="78"/>
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="78"/>
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="G127" t="e">
+        <f t="shared" si="78"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="78"/>
+        <v>8</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ref="J127:AF127" si="79">J121+J122</f>
+        <v>14</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="79"/>
+        <v>12</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="79"/>
+        <v>13</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>148</v>
+      </c>
+      <c r="P127">
+        <f t="shared" ref="P127:AK127" si="80">P121+P122</f>
+        <v>10</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="80"/>
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="U127" t="s">
+        <v>148</v>
+      </c>
+      <c r="V127">
+        <f t="shared" ref="V127:AK127" si="81">V121+V122</f>
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="81"/>
+        <v>10</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB127">
+        <f>AB121+AB122</f>
+        <v>5</v>
+      </c>
+      <c r="AC127">
+        <f>AC121+AC122</f>
+        <v>5</v>
+      </c>
+      <c r="AD127">
+        <f>AD121+AD122</f>
+        <v>5</v>
+      </c>
+      <c r="AE127">
+        <f>AE121+AE122</f>
+        <v>5</v>
+      </c>
+      <c r="AG127" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH127">
+        <f>AH121+AH122</f>
+        <v>5</v>
+      </c>
+      <c r="AI127">
+        <f>AI121+AI122</f>
+        <v>7</v>
+      </c>
+      <c r="AJ127">
+        <f>AJ121+AJ122</f>
+        <v>5</v>
+      </c>
+      <c r="AK127">
+        <f>AK121+AK122</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128">
+        <f>B125/B127</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="C128">
+        <f>C125/C127</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D128">
+        <f>D125/D127</f>
+        <v>0.75</v>
+      </c>
+      <c r="E128">
+        <f>E125/E127</f>
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
+      <c r="H128">
+        <f>H125/H127</f>
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f>J125/J127</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K128">
+        <f>K125/K127</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L128">
+        <f>L125/L127</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="O128" t="s">
+        <v>149</v>
+      </c>
+      <c r="P128">
+        <f>P125/P127</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q128">
+        <f>Q125/Q127</f>
+        <v>0.4</v>
+      </c>
+      <c r="R128">
+        <f>R125/R127</f>
+        <v>0.2</v>
+      </c>
+      <c r="S128">
+        <f>S125/S127</f>
+        <v>0.3</v>
+      </c>
+      <c r="U128" t="s">
+        <v>149</v>
+      </c>
+      <c r="V128" t="e">
+        <f>V125/V127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W128">
+        <f>W125/W127</f>
+        <v>0.6</v>
+      </c>
+      <c r="X128">
+        <f>X125/X127</f>
+        <v>0.9</v>
+      </c>
+      <c r="Y128">
+        <f>Y125/Y127</f>
+        <v>0.1</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB128">
+        <f>AB125/AB127</f>
+        <v>0.8</v>
+      </c>
+      <c r="AC128">
+        <f>AC125/AC127</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD128">
+        <f>AD125/AD127</f>
+        <v>1</v>
+      </c>
+      <c r="AE128">
+        <f>AE125/AE127</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AG128" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH128">
+        <f>AH125/AH127</f>
+        <v>0.8</v>
+      </c>
+      <c r="AI128">
+        <f>AI125/AI127</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AJ128">
+        <f>AJ125/AJ127</f>
+        <v>1</v>
+      </c>
+      <c r="AK128">
+        <f>AK125/AK127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129">
+        <f>B126/B127</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="C129">
+        <f>C126/C127</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D129">
+        <f>D126/D127</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E129">
+        <f>E126/E127</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G129" t="s">
+        <v>150</v>
+      </c>
+      <c r="H129">
+        <f>H126/H127</f>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f>J126/J127</f>
+        <v>0.5</v>
+      </c>
+      <c r="K129">
+        <f>K126/K127</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L129">
+        <f>L126/L127</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="O129" t="s">
+        <v>150</v>
+      </c>
+      <c r="P129">
+        <f t="shared" ref="P129:Y129" si="82">P126/P127</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="82"/>
+        <v>0.4</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="82"/>
+        <v>0.6</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="82"/>
+        <v>0.4</v>
+      </c>
+      <c r="U129" t="s">
+        <v>150</v>
+      </c>
+      <c r="V129" t="e">
+        <f t="shared" ref="V129:AE129" si="83">V126/V127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="83"/>
+        <v>0.3</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="83"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB129">
+        <f>AB126/AB127</f>
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <f>AC126/AC127</f>
+        <v>0.8</v>
+      </c>
+      <c r="AD129">
+        <f>AD126/AD127</f>
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <f>AE126/AE127</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG129" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH129">
+        <f>AH126/AH127</f>
+        <v>0.2</v>
+      </c>
+      <c r="AI129">
+        <f>AI126/AI127</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AJ129">
+        <f>AJ126/AJ127</f>
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <f>AK126/AK127</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
+      <c r="O131" t="s">
+        <v>159</v>
+      </c>
+      <c r="U131" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G132" t="s">
+        <v>115</v>
+      </c>
+      <c r="H132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J132" t="s">
+        <v>54</v>
+      </c>
+      <c r="K132" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132" t="s">
+        <v>45</v>
+      </c>
+      <c r="O132" t="s">
+        <v>115</v>
+      </c>
+      <c r="P132" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>54</v>
+      </c>
+      <c r="R132" t="s">
+        <v>44</v>
+      </c>
+      <c r="S132" t="s">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s">
+        <v>115</v>
+      </c>
+      <c r="V132" t="s">
+        <v>46</v>
+      </c>
+      <c r="W132" t="s">
+        <v>54</v>
+      </c>
+      <c r="X132" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>117</v>
+      </c>
+      <c r="H133">
+        <v>7</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>10</v>
+      </c>
+      <c r="L133">
+        <v>7</v>
+      </c>
+      <c r="O133" t="s">
+        <v>117</v>
+      </c>
+      <c r="P133">
+        <v>10</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>10</v>
+      </c>
+      <c r="S133">
+        <v>10</v>
+      </c>
+      <c r="U133" t="s">
+        <v>117</v>
+      </c>
+      <c r="V133">
+        <v>5</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>6</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB133">
+        <v>6</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>9</v>
+      </c>
+      <c r="AE133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>118</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>11</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>118</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>5</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="U134" t="s">
+        <v>118</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>9</v>
+      </c>
+      <c r="X134">
+        <v>1</v>
+      </c>
+      <c r="Y134">
+        <v>3</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB134">
+        <v>3</v>
+      </c>
+      <c r="AC134">
+        <v>9</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>119</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>119</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="U135" t="s">
+        <v>119</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>120</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>120</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="U136" t="s">
+        <v>120</v>
+      </c>
+      <c r="V136">
+        <v>1</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="10">
+        <f t="shared" ref="B137:E137" si="84">B133-B135</f>
+        <v>8</v>
+      </c>
+      <c r="C137" s="10">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="10">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="E137" s="10">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H137" s="10">
+        <f t="shared" ref="H137:L137" si="85">H133-H135</f>
+        <v>6</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10">
+        <f t="shared" ref="J137:N137" si="86">J133-J135</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="10">
+        <f t="shared" si="86"/>
+        <v>10</v>
+      </c>
+      <c r="L137" s="10">
+        <f t="shared" si="86"/>
+        <v>6</v>
+      </c>
+      <c r="O137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P137" s="10">
+        <f t="shared" ref="P137:S137" si="87">P133-P135</f>
+        <v>9</v>
+      </c>
+      <c r="Q137" s="10">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="R137" s="10">
+        <f t="shared" si="87"/>
+        <v>10</v>
+      </c>
+      <c r="S137" s="10">
+        <f t="shared" si="87"/>
+        <v>9</v>
+      </c>
+      <c r="U137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V137" s="10">
+        <f t="shared" ref="V137:Y137" si="88">V133-V135</f>
+        <v>5</v>
+      </c>
+      <c r="W137" s="10">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="X137" s="10">
+        <f t="shared" si="88"/>
+        <v>8</v>
+      </c>
+      <c r="Y137" s="10">
+        <f t="shared" si="88"/>
+        <v>6</v>
+      </c>
+      <c r="AA137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB137" s="10">
+        <f t="shared" ref="AB137:AE137" si="89">AB133-AB135</f>
+        <v>6</v>
+      </c>
+      <c r="AC137" s="10">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AD137" s="10">
+        <f t="shared" si="89"/>
+        <v>9</v>
+      </c>
+      <c r="AE137" s="10">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="10">
+        <f t="shared" ref="B138:E138" si="90">B134-B136</f>
+        <v>2</v>
+      </c>
+      <c r="C138" s="10">
+        <f t="shared" si="90"/>
+        <v>11</v>
+      </c>
+      <c r="D138" s="10">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="E138" s="10">
+        <f t="shared" si="90"/>
+        <v>6</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H138" s="10">
+        <f t="shared" ref="H138:L138" si="91">H134-H136</f>
+        <v>4</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10">
+        <f t="shared" ref="J138:N138" si="92">J134-J136</f>
+        <v>11</v>
+      </c>
+      <c r="K138" s="10">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="10">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="O138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P138" s="10">
+        <f t="shared" ref="P138:S138" si="93">P134-P136</f>
+        <v>1</v>
+      </c>
+      <c r="Q138" s="10">
+        <f t="shared" si="93"/>
+        <v>5</v>
+      </c>
+      <c r="R138" s="10">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="S138" s="10">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="U138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V138" s="10">
+        <f t="shared" ref="V138:Y138" si="94">V134-V136</f>
+        <v>3</v>
+      </c>
+      <c r="W138" s="10">
+        <f t="shared" si="94"/>
+        <v>9</v>
+      </c>
+      <c r="X138" s="10">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Y138" s="10">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AA138" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB138" s="10">
+        <f t="shared" ref="AB138:AE138" si="95">AB134-AB136</f>
+        <v>3</v>
+      </c>
+      <c r="AC138" s="10">
+        <f t="shared" si="95"/>
+        <v>9</v>
+      </c>
+      <c r="AD138" s="10">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="AE138" s="10">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139">
+        <f>B133+B134</f>
+        <v>12</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:Y139" si="96">C133+C134</f>
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="96"/>
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="96"/>
+        <v>13</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="G139" t="e">
+        <f t="shared" si="96"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="96"/>
+        <v>11</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:AF139" si="97">J133+J134</f>
+        <v>11</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="97"/>
+        <v>11</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="97"/>
+        <v>11</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>148</v>
+      </c>
+      <c r="P139">
+        <f t="shared" ref="P139:AK139" si="98">P133+P134</f>
+        <v>11</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="98"/>
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="98"/>
+        <v>11</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="98"/>
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="U139" t="s">
+        <v>148</v>
+      </c>
+      <c r="V139">
+        <f t="shared" ref="V139:AK139" si="99">V133+V134</f>
+        <v>9</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="99"/>
+        <v>9</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="99"/>
+        <v>9</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="99"/>
+        <v>9</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB139">
+        <f>AB133+AB134</f>
+        <v>9</v>
+      </c>
+      <c r="AC139">
+        <f>AC133+AC134</f>
+        <v>9</v>
+      </c>
+      <c r="AD139">
+        <f>AD133+AD134</f>
+        <v>9</v>
+      </c>
+      <c r="AE139">
+        <f>AE133+AE134</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140">
+        <f>B137/B139</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C140">
+        <f>C137/C139</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D140">
+        <f>D137/D139</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E140">
+        <f>E137/E139</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="G140" t="s">
+        <v>149</v>
+      </c>
+      <c r="H140">
+        <f>H137/H139</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J140">
+        <f>J137/J139</f>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f>K137/K139</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L140">
+        <f>L137/L139</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="O140" t="s">
+        <v>149</v>
+      </c>
+      <c r="P140">
+        <f>P137/P139</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="Q140">
+        <f>Q137/Q139</f>
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <f>R137/R139</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="S140">
+        <f>S137/S139</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="U140" t="s">
+        <v>149</v>
+      </c>
+      <c r="V140">
+        <f>V137/V139</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="W140">
+        <f>W137/W139</f>
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <f>X137/X139</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="Y140">
+        <f>Y137/Y139</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB140">
+        <f>AB137/AB139</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC140">
+        <f>AC137/AC139</f>
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <f>AD137/AD139</f>
+        <v>1</v>
+      </c>
+      <c r="AE140">
+        <f>AE137/AE139</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>150</v>
+      </c>
+      <c r="B141">
+        <f>B138/B139</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C141">
+        <f>C138/C139</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D141">
+        <f>D138/D139</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E141">
+        <f>E138/E139</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G141" t="s">
+        <v>150</v>
+      </c>
+      <c r="H141">
+        <f>H138/H139</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="J141">
+        <f>J138/J139</f>
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <f>K138/K139</f>
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <f>L138/L139</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="O141" t="s">
+        <v>150</v>
+      </c>
+      <c r="P141">
+        <f t="shared" ref="P141:Y141" si="100">P138/P139</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="100"/>
+        <v>0.625</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="100"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="100"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="U141" t="s">
+        <v>150</v>
+      </c>
+      <c r="V141">
+        <f t="shared" ref="V141:AE141" si="101">V138/V139</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="101"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB141">
+        <f>AB138/AB139</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC141">
+        <f>AC138/AC139</f>
+        <v>1</v>
+      </c>
+      <c r="AD141">
+        <f>AD138/AD139</f>
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <f>AE138/AE139</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>162</v>
+      </c>
+      <c r="O143" t="s">
+        <v>163</v>
+      </c>
+      <c r="U143" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>115</v>
+      </c>
+      <c r="H144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
+        <v>54</v>
+      </c>
+      <c r="K144" t="s">
+        <v>44</v>
+      </c>
+      <c r="L144" t="s">
+        <v>45</v>
+      </c>
+      <c r="O144" t="s">
+        <v>115</v>
+      </c>
+      <c r="P144" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>54</v>
+      </c>
+      <c r="R144" t="s">
+        <v>44</v>
+      </c>
+      <c r="S144" t="s">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s">
+        <v>115</v>
+      </c>
+      <c r="V144" t="s">
+        <v>46</v>
+      </c>
+      <c r="W144" t="s">
+        <v>54</v>
+      </c>
+      <c r="X144" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB144" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>117</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>10</v>
+      </c>
+      <c r="L145">
+        <v>8</v>
+      </c>
+      <c r="O145" t="s">
+        <v>117</v>
+      </c>
+      <c r="P145">
+        <v>15</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <v>17</v>
+      </c>
+      <c r="S145">
+        <v>23</v>
+      </c>
+      <c r="U145" t="s">
+        <v>117</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>4</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB145">
+        <v>4</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>4</v>
+      </c>
+      <c r="AE145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>118</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>10</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>118</v>
+      </c>
+      <c r="P146">
+        <v>9</v>
+      </c>
+      <c r="Q146">
+        <v>23</v>
+      </c>
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="U146" t="s">
+        <v>118</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>4</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>4</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>4</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>119</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>119</v>
+      </c>
+      <c r="P147">
+        <v>4</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="U147" t="s">
+        <v>119</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>120</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>120</v>
+      </c>
+      <c r="P148">
+        <v>3</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="U148" t="s">
+        <v>120</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G149" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H149" s="10">
+        <f t="shared" ref="H149:L149" si="102">H145-H147</f>
+        <v>7</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10">
+        <f t="shared" ref="J149:N149" si="103">J145-J147</f>
+        <v>1</v>
+      </c>
+      <c r="K149" s="10">
+        <f t="shared" si="103"/>
+        <v>10</v>
+      </c>
+      <c r="L149" s="10">
+        <f t="shared" si="103"/>
+        <v>8</v>
+      </c>
+      <c r="O149" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="P149" s="10">
+        <f t="shared" ref="P149:S149" si="104">P145-P147</f>
+        <v>11</v>
+      </c>
+      <c r="Q149" s="10">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="R149" s="10">
+        <f t="shared" si="104"/>
+        <v>17</v>
+      </c>
+      <c r="S149" s="10">
+        <f t="shared" si="104"/>
+        <v>20</v>
+      </c>
+      <c r="U149" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="V149" s="10">
+        <f t="shared" ref="V149:Y149" si="105">V145-V147</f>
+        <v>5</v>
+      </c>
+      <c r="W149" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="X149" s="10">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
+      <c r="Y149" s="10">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AA149" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB149" s="10">
+        <f t="shared" ref="AB149:AE149" si="106">AB145-AB147</f>
+        <v>4</v>
+      </c>
+      <c r="AC149" s="10">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AD149" s="10">
+        <f t="shared" si="106"/>
+        <v>4</v>
+      </c>
+      <c r="AE149" s="10">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G150" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H150" s="10">
+        <f t="shared" ref="H150:L150" si="107">H146-H148</f>
+        <v>3</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10">
+        <f t="shared" ref="J150:N150" si="108">J146-J148</f>
+        <v>9</v>
+      </c>
+      <c r="K150" s="10">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="10">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="O150" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="P150" s="10">
+        <f t="shared" ref="P150:S150" si="109">P146-P148</f>
+        <v>6</v>
+      </c>
+      <c r="Q150" s="10">
+        <f t="shared" si="109"/>
+        <v>23</v>
+      </c>
+      <c r="R150" s="10">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
+      <c r="S150" s="10">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="U150" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V150" s="10">
+        <f t="shared" ref="V150:Y150" si="110">V146-V148</f>
+        <v>2</v>
+      </c>
+      <c r="W150" s="10">
+        <f t="shared" si="110"/>
+        <v>3</v>
+      </c>
+      <c r="X150" s="10">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="Y150" s="10">
+        <f t="shared" si="110"/>
+        <v>4</v>
+      </c>
+      <c r="AA150" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB150" s="10">
+        <f t="shared" ref="AB150:AE150" si="111">AB146-AB148</f>
+        <v>0</v>
+      </c>
+      <c r="AC150" s="10">
+        <f t="shared" si="111"/>
+        <v>3</v>
+      </c>
+      <c r="AD150" s="10">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="AE150" s="10">
+        <f t="shared" si="111"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
+      <c r="H151">
+        <f>H145+H146</f>
+        <v>11</v>
+      </c>
+      <c r="J151">
+        <f t="shared" ref="J151:Y151" si="112">J145+J146</f>
+        <v>11</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="112"/>
+        <v>11</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="112"/>
+        <v>11</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>148</v>
+      </c>
+      <c r="P151">
+        <f t="shared" ref="P151:AE151" si="113">P145+P146</f>
+        <v>24</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="113"/>
+        <v>24</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="113"/>
+        <v>23</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="113"/>
+        <v>25</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="U151" t="s">
+        <v>148</v>
+      </c>
+      <c r="V151">
+        <f t="shared" ref="V151:AK151" si="114">V145+V146</f>
+        <v>7</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="114"/>
+        <v>4</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB151">
+        <f>AB145+AB146</f>
+        <v>4</v>
+      </c>
+      <c r="AC151">
+        <f>AC145+AC146</f>
+        <v>4</v>
+      </c>
+      <c r="AD151">
+        <f>AD145+AD146</f>
+        <v>4</v>
+      </c>
+      <c r="AE151">
+        <f>AE145+AE146</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+      <c r="H152">
+        <f>H149/H151</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J152">
+        <f>J149/J151</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K152">
+        <f>K149/K151</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="L152">
+        <f>L149/L151</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O152" t="s">
+        <v>149</v>
+      </c>
+      <c r="P152">
+        <f>P149/P151</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q152">
+        <f>Q149/Q151</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R152">
+        <f>R149/R151</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="S152">
+        <f>S149/S151</f>
+        <v>0.8</v>
+      </c>
+      <c r="U152" t="s">
+        <v>149</v>
+      </c>
+      <c r="V152">
+        <f>V149/V151</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W152">
+        <f>W149/W151</f>
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <f>X149/X151</f>
+        <v>1</v>
+      </c>
+      <c r="Y152">
+        <f>Y149/Y151</f>
+        <v>0</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB152">
+        <f>AB149/AB151</f>
+        <v>1</v>
+      </c>
+      <c r="AC152">
+        <f>AC149/AC151</f>
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <f>AD149/AD151</f>
+        <v>1</v>
+      </c>
+      <c r="AE152">
+        <f>AE149/AE151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>150</v>
+      </c>
+      <c r="H153">
+        <f>H150/H151</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J153">
+        <f>J150/J151</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K153">
+        <f>K150/K151</f>
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <f>L150/L151</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O153" t="s">
+        <v>150</v>
+      </c>
+      <c r="P153">
+        <f t="shared" ref="P153:Y153" si="115">P150/P151</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="115"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="115"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="115"/>
+        <v>0.04</v>
+      </c>
+      <c r="U153" t="s">
+        <v>150</v>
+      </c>
+      <c r="V153">
+        <f t="shared" ref="V153:AE153" si="116">V150/V151</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="116"/>
+        <v>0.75</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB153">
+        <f>AB150/AB151</f>
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <f>AC150/AC151</f>
+        <v>0.75</v>
+      </c>
+      <c r="AD153">
+        <f>AD150/AD151</f>
+        <v>0</v>
+      </c>
+      <c r="AE153">
+        <f>AE150/AE151</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G155" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
+      <c r="O155" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P155" s="11"/>
+      <c r="Q155" s="11"/>
+      <c r="R155" s="11"/>
+      <c r="S155" s="11"/>
+      <c r="U155" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="V155" s="11"/>
+      <c r="W155" s="11"/>
+      <c r="X155" s="11"/>
+      <c r="Y155" s="11"/>
+      <c r="AA155" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB155" s="11"/>
+      <c r="AC155" s="11"/>
+      <c r="AD155" s="11"/>
+      <c r="AE155" s="11"/>
+    </row>
+    <row r="156" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G156" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O156" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P156" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R156" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S156" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U156" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V156" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X156" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y156" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA156" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB156" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC156" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD156" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE156" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G157" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H157" s="11">
+        <v>5</v>
+      </c>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11">
+        <v>1</v>
+      </c>
+      <c r="K157" s="11">
+        <v>9</v>
+      </c>
+      <c r="L157" s="11">
+        <v>5</v>
+      </c>
+      <c r="O157" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P157" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q157" s="11">
+        <v>3</v>
+      </c>
+      <c r="R157" s="11">
+        <v>12</v>
+      </c>
+      <c r="S157" s="11">
+        <v>7</v>
+      </c>
+      <c r="U157" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V157" s="11">
+        <v>3</v>
+      </c>
+      <c r="W157" s="11">
+        <v>1</v>
+      </c>
+      <c r="X157" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y157" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA157" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB157" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC157" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD157" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE157" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G158" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H158" s="11">
+        <v>5</v>
+      </c>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11">
+        <v>9</v>
+      </c>
+      <c r="K158" s="11">
+        <v>1</v>
+      </c>
+      <c r="L158" s="11">
+        <v>5</v>
+      </c>
+      <c r="O158" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P158" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q158" s="11">
+        <v>14</v>
+      </c>
+      <c r="R158" s="11">
+        <v>6</v>
+      </c>
+      <c r="S158" s="11">
+        <v>11</v>
+      </c>
+      <c r="U158" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V158" s="11">
+        <v>2</v>
+      </c>
+      <c r="W158" s="11">
+        <v>4</v>
+      </c>
+      <c r="X158" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y158" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA158" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB158" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC158" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD158" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G159" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H159" s="11">
+        <v>0</v>
+      </c>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11">
+        <v>0</v>
+      </c>
+      <c r="K159" s="11">
+        <v>0</v>
+      </c>
+      <c r="L159" s="11">
+        <v>1</v>
+      </c>
+      <c r="O159" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P159" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q159" s="11">
+        <v>1</v>
+      </c>
+      <c r="R159" s="11">
+        <v>0</v>
+      </c>
+      <c r="S159" s="11">
+        <v>2</v>
+      </c>
+      <c r="U159" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V159" s="11">
+        <v>1</v>
+      </c>
+      <c r="W159" s="11">
+        <v>0</v>
+      </c>
+      <c r="X159" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB159" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC159" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD159" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G160" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H160" s="11">
+        <v>1</v>
+      </c>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11">
+        <v>1</v>
+      </c>
+      <c r="K160" s="11">
+        <v>1</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="O160" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P160" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="11">
+        <v>0</v>
+      </c>
+      <c r="R160" s="11">
+        <v>2</v>
+      </c>
+      <c r="S160" s="11">
+        <v>2</v>
+      </c>
+      <c r="U160" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V160" s="11">
+        <v>0</v>
+      </c>
+      <c r="W160" s="11">
+        <v>0</v>
+      </c>
+      <c r="X160" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB160" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G161" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H161" s="12">
+        <f t="shared" ref="H161:L161" si="117">H157-H159</f>
+        <v>5</v>
+      </c>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12">
+        <f t="shared" ref="J161:N161" si="118">J157-J159</f>
+        <v>1</v>
+      </c>
+      <c r="K161" s="12">
+        <f t="shared" si="118"/>
+        <v>9</v>
+      </c>
+      <c r="L161" s="12">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
+      <c r="O161" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P161" s="12">
+        <f t="shared" ref="P161:S161" si="119">P157-P159</f>
+        <v>12</v>
+      </c>
+      <c r="Q161" s="12">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+      <c r="R161" s="12">
+        <f t="shared" si="119"/>
+        <v>12</v>
+      </c>
+      <c r="S161" s="12">
+        <f t="shared" si="119"/>
+        <v>5</v>
+      </c>
+      <c r="U161" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="V161" s="12">
+        <f t="shared" ref="V161:Y161" si="120">V157-V159</f>
+        <v>2</v>
+      </c>
+      <c r="W161" s="12">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="X161" s="12">
+        <f t="shared" si="120"/>
+        <v>4</v>
+      </c>
+      <c r="Y161" s="12">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="AA161" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB161" s="12">
+        <f t="shared" ref="AB161:AE161" si="121">AB157-AB159</f>
+        <v>1</v>
+      </c>
+      <c r="AC161" s="12">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="AD161" s="12">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="AE161" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G162" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H162" s="12">
+        <f t="shared" ref="H162:L162" si="122">H158-H160</f>
+        <v>4</v>
+      </c>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12">
+        <f t="shared" ref="J162:N162" si="123">J158-J160</f>
+        <v>8</v>
+      </c>
+      <c r="K162" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="L162" s="12">
+        <f t="shared" si="123"/>
+        <v>5</v>
+      </c>
+      <c r="O162" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P162" s="12">
+        <f t="shared" ref="P162:S162" si="124">P158-P160</f>
+        <v>3</v>
+      </c>
+      <c r="Q162" s="12">
+        <f t="shared" si="124"/>
+        <v>14</v>
+      </c>
+      <c r="R162" s="12">
+        <f t="shared" si="124"/>
+        <v>4</v>
+      </c>
+      <c r="S162" s="12">
+        <f t="shared" si="124"/>
+        <v>9</v>
+      </c>
+      <c r="U162" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V162" s="12">
+        <f t="shared" ref="V162:Y162" si="125">V158-V160</f>
+        <v>2</v>
+      </c>
+      <c r="W162" s="12">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="X162" s="12">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="Y162" s="12">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="AA162" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB162" s="12">
+        <f t="shared" ref="AB162:AE162" si="126">AB158-AB160</f>
+        <v>1</v>
+      </c>
+      <c r="AC162" s="12">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="AD162" s="12">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AE162" s="12">
+        <f t="shared" si="126"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>148</v>
+      </c>
+      <c r="H163">
+        <f>H157+H158</f>
+        <v>10</v>
+      </c>
+      <c r="J163">
+        <f t="shared" ref="J163:Y163" si="127">J157+J158</f>
+        <v>10</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="127"/>
+        <v>10</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="127"/>
+        <v>10</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>148</v>
+      </c>
+      <c r="P163">
+        <f t="shared" ref="P163:AE163" si="128">P157+P158</f>
+        <v>18</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" si="128"/>
+        <v>17</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="128"/>
+        <v>18</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="128"/>
+        <v>18</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="U163" t="s">
+        <v>148</v>
+      </c>
+      <c r="V163">
+        <f t="shared" ref="V163:AK163" si="129">V157+V158</f>
+        <v>5</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="129"/>
+        <v>5</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="129"/>
+        <v>5</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="129"/>
+        <v>5</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB163">
+        <f>AB157+AB158</f>
+        <v>3</v>
+      </c>
+      <c r="AC163">
+        <f>AC157+AC158</f>
+        <v>3</v>
+      </c>
+      <c r="AD163">
+        <f>AD157+AD158</f>
+        <v>3</v>
+      </c>
+      <c r="AE163">
+        <f>AE157+AE158</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>149</v>
+      </c>
+      <c r="H164">
+        <f>H161/H163</f>
+        <v>0.5</v>
+      </c>
+      <c r="J164">
+        <f>J161/J163</f>
+        <v>0.1</v>
+      </c>
+      <c r="K164">
+        <f>K161/K163</f>
+        <v>0.9</v>
+      </c>
+      <c r="L164">
+        <f>L161/L163</f>
+        <v>0.4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>149</v>
+      </c>
+      <c r="P164">
+        <f>P161/P163</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q164">
+        <f>Q161/Q163</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="R164">
+        <f>R161/R163</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S164">
+        <f>S161/S163</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="U164" t="s">
+        <v>149</v>
+      </c>
+      <c r="V164">
+        <f>V161/V163</f>
+        <v>0.4</v>
+      </c>
+      <c r="W164">
+        <f>W161/W163</f>
+        <v>0.2</v>
+      </c>
+      <c r="X164">
+        <f>X161/X163</f>
+        <v>0.8</v>
+      </c>
+      <c r="Y164">
+        <f>Y161/Y163</f>
+        <v>0.2</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB164">
+        <f>AB161/AB163</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC164">
+        <f>AC161/AC163</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD164">
+        <f>AD161/AD163</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AE164">
+        <f>AE161/AE163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>150</v>
+      </c>
+      <c r="H165">
+        <f>H162/H163</f>
+        <v>0.4</v>
+      </c>
+      <c r="J165">
+        <f>J162/J163</f>
+        <v>0.8</v>
+      </c>
+      <c r="K165">
+        <f>K162/K163</f>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <f>L162/L163</f>
+        <v>0.5</v>
+      </c>
+      <c r="O165" t="s">
+        <v>150</v>
+      </c>
+      <c r="P165">
+        <f t="shared" ref="P165:Y165" si="130">P162/P163</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" si="130"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="130"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="130"/>
+        <v>0.5</v>
+      </c>
+      <c r="U165" t="s">
+        <v>150</v>
+      </c>
+      <c r="V165">
+        <f t="shared" ref="V165:AE165" si="131">V162/V163</f>
+        <v>0.4</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="131"/>
+        <v>0.8</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="131"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="131"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB165">
+        <f>AB162/AB163</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC165">
+        <f>AC162/AC163</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD165">
+        <f>AD162/AD163</f>
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <f>AE162/AE163</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="167" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G167" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="O167" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="U167" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V167" s="11"/>
+      <c r="W167" s="11"/>
+      <c r="X167" s="11"/>
+      <c r="Y167" s="11"/>
+      <c r="AA167" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB167" s="11"/>
+      <c r="AC167" s="11"/>
+      <c r="AD167" s="11"/>
+      <c r="AE167" s="11"/>
+    </row>
+    <row r="168" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G168" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O168" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P168" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S168" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U168" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V168" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W168" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y168" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA168" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB168" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC168" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD168" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE168" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G169" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H169" s="11">
+        <v>11</v>
+      </c>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11">
+        <v>6</v>
+      </c>
+      <c r="K169" s="11">
+        <v>11</v>
+      </c>
+      <c r="L169" s="11">
+        <v>7</v>
+      </c>
+      <c r="O169" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P169" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q169" s="11">
+        <v>12</v>
+      </c>
+      <c r="R169" s="11">
+        <v>13</v>
+      </c>
+      <c r="S169" s="11">
+        <v>5</v>
+      </c>
+      <c r="U169" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V169" s="11">
+        <v>2</v>
+      </c>
+      <c r="W169" s="11">
+        <v>5</v>
+      </c>
+      <c r="X169" s="11">
+        <v>5</v>
+      </c>
+      <c r="Y169" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA169" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB169" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC169" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE169" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G170" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H170" s="11">
+        <v>9</v>
+      </c>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11">
+        <v>5</v>
+      </c>
+      <c r="K170" s="11">
+        <v>0</v>
+      </c>
+      <c r="L170" s="11">
+        <v>3</v>
+      </c>
+      <c r="O170" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P170" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q170" s="11">
+        <v>4</v>
+      </c>
+      <c r="R170" s="11">
+        <v>3</v>
+      </c>
+      <c r="S170" s="11">
+        <v>11</v>
+      </c>
+      <c r="U170" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V170" s="11">
+        <v>3</v>
+      </c>
+      <c r="W170" s="11">
+        <v>2</v>
+      </c>
+      <c r="X170" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y170" s="11">
+        <v>5</v>
+      </c>
+      <c r="AA170" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB170" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD170" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G171" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H171" s="11">
+        <v>0</v>
+      </c>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11">
+        <v>2</v>
+      </c>
+      <c r="K171" s="11">
+        <v>0</v>
+      </c>
+      <c r="L171" s="11">
+        <v>1</v>
+      </c>
+      <c r="O171" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P171" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="11">
+        <v>1</v>
+      </c>
+      <c r="R171" s="11">
+        <v>1</v>
+      </c>
+      <c r="S171" s="11">
+        <v>3</v>
+      </c>
+      <c r="U171" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="V171" s="11">
+        <v>0</v>
+      </c>
+      <c r="W171" s="11">
+        <v>0</v>
+      </c>
+      <c r="X171" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y171" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB171" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE171" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G172" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H172" s="11">
+        <v>0</v>
+      </c>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11">
+        <v>0</v>
+      </c>
+      <c r="K172" s="11">
+        <v>0</v>
+      </c>
+      <c r="L172" s="11">
+        <v>1</v>
+      </c>
+      <c r="O172" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P172" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="11">
+        <v>1</v>
+      </c>
+      <c r="R172" s="11">
+        <v>0</v>
+      </c>
+      <c r="S172" s="11">
+        <v>1</v>
+      </c>
+      <c r="U172" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="V172" s="11">
+        <v>1</v>
+      </c>
+      <c r="W172" s="11">
+        <v>1</v>
+      </c>
+      <c r="X172" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA172" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB172" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G173" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H173" s="12">
+        <f t="shared" ref="H173:L173" si="132">H169-H171</f>
+        <v>11</v>
+      </c>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12">
+        <f t="shared" ref="J173:N173" si="133">J169-J171</f>
+        <v>4</v>
+      </c>
+      <c r="K173" s="12">
+        <f t="shared" si="133"/>
+        <v>11</v>
+      </c>
+      <c r="L173" s="12">
+        <f t="shared" si="133"/>
+        <v>6</v>
+      </c>
+      <c r="O173" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="P173" s="12">
+        <f t="shared" ref="P173:S173" si="134">P169-P171</f>
+        <v>12</v>
+      </c>
+      <c r="Q173" s="12">
+        <f t="shared" si="134"/>
+        <v>11</v>
+      </c>
+      <c r="R173" s="12">
+        <f t="shared" si="134"/>
+        <v>12</v>
+      </c>
+      <c r="S173" s="12">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="U173" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="V173" s="12">
+        <f t="shared" ref="V173:Y173" si="135">V169-V171</f>
+        <v>2</v>
+      </c>
+      <c r="W173" s="12">
+        <f t="shared" si="135"/>
+        <v>5</v>
+      </c>
+      <c r="X173" s="12">
+        <f t="shared" si="135"/>
+        <v>4</v>
+      </c>
+      <c r="Y173" s="12">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+      <c r="AA173" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB173" s="12">
+        <f t="shared" ref="AB173:AE173" si="136">AB169-AB171</f>
+        <v>2</v>
+      </c>
+      <c r="AC173" s="12">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="AD173" s="12">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="AE173" s="12">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G174" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H174" s="12">
+        <f t="shared" ref="H174:L174" si="137">H170-H172</f>
+        <v>9</v>
+      </c>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12">
+        <f t="shared" ref="J174:N174" si="138">J170-J172</f>
+        <v>5</v>
+      </c>
+      <c r="K174" s="12">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="L174" s="12">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+      <c r="O174" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="P174" s="12">
+        <f t="shared" ref="P174:S174" si="139">P170-P172</f>
+        <v>4</v>
+      </c>
+      <c r="Q174" s="12">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
+      <c r="R174" s="12">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
+      <c r="S174" s="12">
+        <f t="shared" si="139"/>
+        <v>10</v>
+      </c>
+      <c r="U174" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V174" s="12">
+        <f t="shared" ref="V174:Y174" si="140">V170-V172</f>
+        <v>2</v>
+      </c>
+      <c r="W174" s="12">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="X174" s="12">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
+      <c r="Y174" s="12">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="AA174" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB174" s="12">
+        <f t="shared" ref="AB174:AE174" si="141">AB170-AB172</f>
+        <v>0</v>
+      </c>
+      <c r="AC174" s="12">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="AD174" s="12">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="AE174" s="12">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
+        <v>148</v>
+      </c>
+      <c r="H175">
+        <f>H169+H170</f>
+        <v>20</v>
+      </c>
+      <c r="J175">
+        <f t="shared" ref="J175:Y175" si="142">J169+J170</f>
+        <v>11</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="142"/>
+        <v>11</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="142"/>
+        <v>10</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>148</v>
+      </c>
+      <c r="P175">
+        <f t="shared" ref="P175:AE175" si="143">P169+P170</f>
+        <v>17</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="143"/>
+        <v>16</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="143"/>
+        <v>16</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="143"/>
+        <v>16</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="U175" t="s">
+        <v>148</v>
+      </c>
+      <c r="V175">
+        <f t="shared" ref="V175:AK175" si="144">V169+V170</f>
+        <v>5</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="144"/>
+        <v>7</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="144"/>
+        <v>7</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="144"/>
+        <v>7</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB175">
+        <f>AB169+AB170</f>
+        <v>2</v>
+      </c>
+      <c r="AC175">
+        <f>AC169+AC170</f>
+        <v>1</v>
+      </c>
+      <c r="AD175">
+        <f>AD169+AD170</f>
+        <v>1</v>
+      </c>
+      <c r="AE175">
+        <f>AE169+AE170</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>149</v>
+      </c>
+      <c r="H176">
+        <f>H173/H175</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J176">
+        <f>J173/J175</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K176">
+        <f>K173/K175</f>
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <f>L173/L175</f>
+        <v>0.6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>149</v>
+      </c>
+      <c r="P176">
+        <f>P173/P175</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="Q176">
+        <f>Q173/Q175</f>
+        <v>0.6875</v>
+      </c>
+      <c r="R176">
+        <f>R173/R175</f>
+        <v>0.75</v>
+      </c>
+      <c r="S176">
+        <f>S173/S175</f>
+        <v>0.125</v>
+      </c>
+      <c r="U176" t="s">
+        <v>149</v>
+      </c>
+      <c r="V176">
+        <f>V173/V175</f>
+        <v>0.4</v>
+      </c>
+      <c r="W176">
+        <f>W173/W175</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="X176">
+        <f>X173/X175</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Y176">
+        <f>Y173/Y175</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB176">
+        <f>AB173/AB175</f>
+        <v>1</v>
+      </c>
+      <c r="AC176">
+        <f>AC173/AC175</f>
+        <v>0</v>
+      </c>
+      <c r="AD176">
+        <f>AD173/AD175</f>
+        <v>1</v>
+      </c>
+      <c r="AE176">
+        <f>AE173/AE175</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="7:31" x14ac:dyDescent="0.2">
+      <c r="G177" t="s">
+        <v>150</v>
+      </c>
+      <c r="H177">
+        <f>H174/H175</f>
+        <v>0.45</v>
+      </c>
+      <c r="J177">
+        <f>J174/J175</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K177">
+        <f>K174/K175</f>
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <f>L174/L175</f>
+        <v>0.2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>150</v>
+      </c>
+      <c r="P177">
+        <f t="shared" ref="P177:Y177" si="145">P174/P175</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="145"/>
+        <v>0.1875</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="145"/>
+        <v>0.1875</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="145"/>
+        <v>0.625</v>
+      </c>
+      <c r="U177" t="s">
+        <v>150</v>
+      </c>
+      <c r="V177">
+        <f t="shared" ref="V177:AE177" si="146">V174/V175</f>
+        <v>0.4</v>
+      </c>
+      <c r="W177">
+        <f t="shared" si="146"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="146"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="146"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB177">
+        <f>AB174/AB175</f>
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <f>AC174/AC175</f>
+        <v>1</v>
+      </c>
+      <c r="AD177">
+        <f>AD174/AD175</f>
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <f>AE174/AE175</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="S6:V6 S14:W14" formulaRange="1"/>
+    <ignoredError sqref="T7:T8 T15:T16 U7:U8 U15:U16" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -85251,7 +90898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
